--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -1556,7 +1556,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="billingnetworkcontractingstatus"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1573,7 +1573,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="brandgenericcode"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1590,7 +1590,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="rxorigincode"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1607,7 +1607,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="refillnum"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1621,7 +1621,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="dawcode"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1638,7 +1638,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="claimrecvddate"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1652,7 +1652,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="dayssupply"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1666,7 +1666,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategoryCS"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
     &lt;code value="compoundcode"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -1553,7 +1553,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBSupportingInfoType"/&gt;
     &lt;code value="billingnetworkcontractingstatus"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1570,7 +1570,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBSupportingInfoType"/&gt;
     &lt;code value="brandgenericcode"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1587,7 +1587,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBSupportingInfoType"/&gt;
     &lt;code value="rxorigincode"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1604,7 +1604,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBSupportingInfoType"/&gt;
     &lt;code value="refillnum"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1618,7 +1618,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBSupportingInfoType"/&gt;
     &lt;code value="dawcode"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1627,7 +1627,7 @@
     <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NCPDPDispensedAsWrittenOrProductSelectionCode</t>
   </si>
   <si>
-    <t>claimrecvddate</t>
+    <t>clmrecvddate</t>
   </si>
   <si>
     <t>The date the claim was received by the payer (88)</t>
@@ -1635,8 +1635,8 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
-    &lt;code value="claimrecvddate"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBSupportingInfoType"/&gt;
+    &lt;code value="clmrecvddate"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1649,7 +1649,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBSupportingInfoType"/&gt;
     &lt;code value="dayssupply"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -1663,7 +1663,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/ClaimInformationCategory"/&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBSupportingInfoType"/&gt;
     &lt;code value="compoundcode"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13446" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13446" uniqueCount="1079">
   <si>
     <t>Path</t>
   </si>
@@ -2508,6 +2508,14 @@
   </si>
   <si>
     <t>Reason codes used to interpret the Non-Covered Amount (92)</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/C4BBAdjudicationDiscriminator"/&gt;
+    &lt;code value="denialreason"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/carin-bb/ValueSet/NCPDPRejectCode</t>
@@ -30405,7 +30413,7 @@
         <v>43</v>
       </c>
       <c r="R241" t="s" s="2">
-        <v>43</v>
+        <v>795</v>
       </c>
       <c r="S241" t="s" s="2">
         <v>43</v>
@@ -30537,7 +30545,7 @@
       </c>
       <c r="X242" s="2"/>
       <c r="Y242" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Z242" t="s" s="2">
         <v>43</v>
@@ -30810,7 +30818,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30836,10 +30844,10 @@
         <v>311</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
@@ -30890,7 +30898,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30919,7 +30927,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -31028,7 +31036,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31139,7 +31147,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31252,7 +31260,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31281,7 +31289,7 @@
         <v>643</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" t="s" s="2">
@@ -31334,7 +31342,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>50</v>
@@ -31363,7 +31371,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31445,7 +31453,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31474,7 +31482,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31506,7 +31514,7 @@
         <v>677</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N251" t="s" s="2">
         <v>679</v>
@@ -31558,7 +31566,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31587,7 +31595,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31613,7 +31621,7 @@
         <v>178</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L252" t="s" s="2">
         <v>685</v>
@@ -31651,7 +31659,7 @@
       </c>
       <c r="X252" s="2"/>
       <c r="Y252" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
@@ -31669,7 +31677,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>50</v>
@@ -31698,7 +31706,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31724,7 +31732,7 @@
         <v>178</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L253" t="s" s="2">
         <v>691</v>
@@ -31782,7 +31790,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31811,7 +31819,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31895,7 +31903,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31924,7 +31932,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31950,7 +31958,7 @@
         <v>715</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="L255" t="s" s="2">
         <v>717</v>
@@ -32006,7 +32014,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -32035,7 +32043,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32117,7 +32125,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -32146,7 +32154,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32230,7 +32238,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -32259,7 +32267,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32343,7 +32351,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32372,7 +32380,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32454,7 +32462,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32483,7 +32491,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32509,7 +32517,7 @@
         <v>420</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L260" t="s" s="2">
         <v>755</v>
@@ -32565,7 +32573,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32594,7 +32602,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32620,10 +32628,10 @@
         <v>43</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
@@ -32674,7 +32682,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32703,7 +32711,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32729,10 +32737,10 @@
         <v>311</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
@@ -32783,7 +32791,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32812,7 +32820,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32921,7 +32929,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33032,7 +33040,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33145,7 +33153,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33174,7 +33182,7 @@
         <v>643</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M266" s="2"/>
       <c r="N266" t="s" s="2">
@@ -33227,7 +33235,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>50</v>
@@ -33256,7 +33264,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33338,7 +33346,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33367,7 +33375,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33451,7 +33459,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33480,7 +33488,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33506,7 +33514,7 @@
         <v>178</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L269" t="s" s="2">
         <v>685</v>
@@ -33543,28 +33551,28 @@
         <v>116</v>
       </c>
       <c r="X269" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="Y269" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="Z269" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA269" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB269" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC269" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD269" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE269" t="s" s="2">
         <v>833</v>
-      </c>
-      <c r="Y269" t="s" s="2">
-        <v>834</v>
-      </c>
-      <c r="Z269" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA269" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB269" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC269" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD269" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE269" t="s" s="2">
-        <v>832</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>50</v>
@@ -33593,7 +33601,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33619,13 +33627,13 @@
         <v>178</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L270" t="s" s="2">
         <v>691</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N270" t="s" s="2">
         <v>693</v>
@@ -33677,7 +33685,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33706,7 +33714,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33790,7 +33798,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33819,7 +33827,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33845,7 +33853,7 @@
         <v>715</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="L272" t="s" s="2">
         <v>717</v>
@@ -33901,7 +33909,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33930,7 +33938,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -34012,7 +34020,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -34041,7 +34049,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34125,7 +34133,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -34154,7 +34162,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34238,7 +34246,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -34267,7 +34275,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34349,7 +34357,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34378,7 +34386,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34404,7 +34412,7 @@
         <v>420</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L277" t="s" s="2">
         <v>755</v>
@@ -34460,7 +34468,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34489,7 +34497,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34515,10 +34523,10 @@
         <v>43</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
@@ -34569,7 +34577,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34598,7 +34606,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34624,14 +34632,14 @@
         <v>311</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34680,7 +34688,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34709,7 +34717,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34818,7 +34826,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34929,7 +34937,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -35042,7 +35050,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35068,14 +35076,14 @@
         <v>420</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -35124,7 +35132,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -35153,7 +35161,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35179,14 +35187,14 @@
         <v>420</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -35235,7 +35243,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -35264,7 +35272,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35290,14 +35298,14 @@
         <v>420</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -35346,7 +35354,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35375,7 +35383,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35398,17 +35406,17 @@
         <v>43</v>
       </c>
       <c r="J286" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="M286" s="2"/>
       <c r="N286" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>43</v>
@@ -35457,7 +35465,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35486,7 +35494,7 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
@@ -35512,7 +35520,7 @@
         <v>178</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L287" t="s" s="2">
         <v>685</v>
@@ -35549,10 +35557,10 @@
         <v>116</v>
       </c>
       <c r="X287" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="Y287" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Z287" t="s" s="2">
         <v>43</v>
@@ -35570,7 +35578,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>50</v>
@@ -35599,7 +35607,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35625,7 +35633,7 @@
         <v>178</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L288" t="s" s="2">
         <v>691</v>
@@ -35683,7 +35691,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35712,7 +35720,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35796,7 +35804,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35825,7 +35833,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35851,7 +35859,7 @@
         <v>475</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="L290" t="s" s="2">
         <v>705</v>
@@ -35907,7 +35915,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35936,7 +35944,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -36018,7 +36026,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -36047,7 +36055,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36073,7 +36081,7 @@
         <v>715</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="L292" t="s" s="2">
         <v>717</v>
@@ -36129,7 +36137,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36158,7 +36166,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36240,7 +36248,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36269,7 +36277,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36353,7 +36361,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36382,7 +36390,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36466,7 +36474,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36495,7 +36503,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36527,7 +36535,7 @@
         <v>738</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N296" t="s" s="2">
         <v>740</v>
@@ -36579,7 +36587,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>41</v>
@@ -36608,7 +36616,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36690,7 +36698,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>41</v>
@@ -36719,7 +36727,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36745,7 +36753,7 @@
         <v>420</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L298" t="s" s="2">
         <v>755</v>
@@ -36801,7 +36809,7 @@
         <v>43</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>41</v>
@@ -36830,7 +36838,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36856,10 +36864,10 @@
         <v>43</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
@@ -36910,7 +36918,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>41</v>
@@ -36939,7 +36947,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36965,10 +36973,10 @@
         <v>311</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
@@ -37019,7 +37027,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -37048,7 +37056,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37157,7 +37165,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37268,7 +37276,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37381,7 +37389,7 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
@@ -37407,7 +37415,7 @@
         <v>178</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L304" t="s" s="2">
         <v>685</v>
@@ -37444,10 +37452,10 @@
         <v>116</v>
       </c>
       <c r="X304" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="Y304" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Z304" t="s" s="2">
         <v>43</v>
@@ -37465,7 +37473,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>50</v>
@@ -37494,7 +37502,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37520,7 +37528,7 @@
         <v>178</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L305" t="s" s="2">
         <v>691</v>
@@ -37578,7 +37586,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37607,7 +37615,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37633,7 +37641,7 @@
         <v>715</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="L306" t="s" s="2">
         <v>717</v>
@@ -37689,7 +37697,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37718,7 +37726,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37800,7 +37808,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37829,7 +37837,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37913,7 +37921,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37942,7 +37950,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -38026,7 +38034,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -38055,7 +38063,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38081,7 +38089,7 @@
         <v>420</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L310" t="s" s="2">
         <v>755</v>
@@ -38137,7 +38145,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -38166,7 +38174,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38192,10 +38200,10 @@
         <v>43</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -38246,7 +38254,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -38275,7 +38283,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38301,10 +38309,10 @@
         <v>311</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="M312" s="2"/>
       <c r="N312" s="2"/>
@@ -38355,7 +38363,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38384,7 +38392,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38493,7 +38501,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38604,7 +38612,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38717,7 +38725,7 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
@@ -38743,7 +38751,7 @@
         <v>178</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L316" t="s" s="2">
         <v>685</v>
@@ -38780,10 +38788,10 @@
         <v>116</v>
       </c>
       <c r="X316" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="Y316" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Z316" t="s" s="2">
         <v>43</v>
@@ -38801,7 +38809,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>50</v>
@@ -38830,7 +38838,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38856,7 +38864,7 @@
         <v>178</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L317" t="s" s="2">
         <v>691</v>
@@ -38914,7 +38922,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38943,7 +38951,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38969,7 +38977,7 @@
         <v>715</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="L318" t="s" s="2">
         <v>717</v>
@@ -39025,7 +39033,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -39054,7 +39062,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39136,7 +39144,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -39165,7 +39173,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39249,7 +39257,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -39278,7 +39286,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39362,7 +39370,7 @@
         <v>43</v>
       </c>
       <c r="AE321" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AF321" t="s" s="2">
         <v>41</v>
@@ -39391,7 +39399,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39417,7 +39425,7 @@
         <v>420</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L322" t="s" s="2">
         <v>755</v>
@@ -39473,7 +39481,7 @@
         <v>43</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AF322" t="s" s="2">
         <v>41</v>
@@ -39502,7 +39510,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39528,10 +39536,10 @@
         <v>43</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -39582,7 +39590,7 @@
         <v>43</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>41</v>
@@ -39611,7 +39619,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39637,14 +39645,14 @@
         <v>43</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="M324" s="2"/>
       <c r="N324" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39693,7 +39701,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39722,7 +39730,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39748,16 +39756,16 @@
         <v>311</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39794,10 +39802,10 @@
         <v>43</v>
       </c>
       <c r="AA325" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AB325" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AC325" t="s" s="2">
         <v>43</v>
@@ -39806,7 +39814,7 @@
         <v>76</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39835,7 +39843,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39944,7 +39952,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -40055,7 +40063,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40168,7 +40176,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40197,13 +40205,13 @@
         <v>767</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M329" t="s" s="2">
         <v>769</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -40252,7 +40260,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>50</v>
@@ -40281,7 +40289,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40307,14 +40315,14 @@
         <v>720</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M330" s="2"/>
       <c r="N330" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40363,7 +40371,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>50</v>
@@ -40392,7 +40400,7 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B331" t="s" s="2">
         <v>790</v>
@@ -40423,13 +40431,13 @@
         <v>791</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40478,7 +40486,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40507,7 +40515,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40616,7 +40624,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40727,7 +40735,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40840,7 +40848,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40869,13 +40877,13 @@
         <v>767</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M335" t="s" s="2">
         <v>769</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40922,7 +40930,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>50</v>
@@ -40951,7 +40959,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -40977,14 +40985,14 @@
         <v>720</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M336" s="2"/>
       <c r="N336" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -41033,7 +41041,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>50</v>
@@ -41062,10 +41070,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C337" t="s" s="2">
         <v>43</v>
@@ -41090,16 +41098,16 @@
         <v>311</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41148,7 +41156,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -41177,7 +41185,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41286,7 +41294,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41397,7 +41405,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41510,7 +41518,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41539,13 +41547,13 @@
         <v>767</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M341" t="s" s="2">
         <v>769</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="O341" t="s" s="2">
         <v>43</v>
@@ -41574,7 +41582,7 @@
       </c>
       <c r="X341" s="2"/>
       <c r="Y341" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="Z341" t="s" s="2">
         <v>43</v>
@@ -41592,7 +41600,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>50</v>
@@ -41621,7 +41629,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41647,14 +41655,14 @@
         <v>720</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M342" s="2"/>
       <c r="N342" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41703,7 +41711,7 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>50</v>
@@ -41732,7 +41740,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41758,14 +41766,14 @@
         <v>311</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="M343" s="2"/>
       <c r="N343" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>43</v>
@@ -41814,7 +41822,7 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AF343" t="s" s="2">
         <v>41</v>
@@ -41843,7 +41851,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41952,7 +41960,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -42063,7 +42071,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42176,7 +42184,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42202,14 +42210,14 @@
         <v>178</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42238,7 +42246,7 @@
       </c>
       <c r="X347" s="2"/>
       <c r="Y347" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="Z347" t="s" s="2">
         <v>43</v>
@@ -42256,7 +42264,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42285,7 +42293,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42311,16 +42319,16 @@
         <v>720</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42369,7 +42377,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42398,7 +42406,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42424,14 +42432,14 @@
         <v>178</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="M349" s="2"/>
       <c r="N349" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42459,10 +42467,10 @@
         <v>116</v>
       </c>
       <c r="X349" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="Y349" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="Z349" t="s" s="2">
         <v>43</v>
@@ -42480,7 +42488,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42509,7 +42517,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42535,14 +42543,14 @@
         <v>626</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="M350" s="2"/>
       <c r="N350" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42591,7 +42599,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42620,7 +42628,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42646,14 +42654,14 @@
         <v>720</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="M351" s="2"/>
       <c r="N351" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42702,7 +42710,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42731,7 +42739,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42757,16 +42765,16 @@
         <v>159</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="O352" t="s" s="2">
         <v>43</v>
@@ -42815,7 +42823,7 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
@@ -42844,7 +42852,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42870,16 +42878,16 @@
         <v>178</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="O353" t="s" s="2">
         <v>43</v>
@@ -42907,10 +42915,10 @@
         <v>116</v>
       </c>
       <c r="X353" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Y353" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="Z353" t="s" s="2">
         <v>43</v>
@@ -42928,7 +42936,7 @@
         <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AF353" t="s" s="2">
         <v>41</v>
@@ -42957,7 +42965,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -42980,19 +42988,19 @@
         <v>43</v>
       </c>
       <c r="J354" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="O354" t="s" s="2">
         <v>43</v>
@@ -43041,7 +43049,7 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>41</v>
@@ -43070,7 +43078,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43096,14 +43104,14 @@
         <v>311</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M355" s="2"/>
       <c r="N355" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>43</v>
@@ -43152,7 +43160,7 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>41</v>
@@ -43181,7 +43189,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43290,7 +43298,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43401,7 +43409,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43514,7 +43522,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43540,14 +43548,14 @@
         <v>420</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M359" s="2"/>
       <c r="N359" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43596,7 +43604,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43625,7 +43633,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43651,14 +43659,14 @@
         <v>126</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43686,10 +43694,10 @@
         <v>172</v>
       </c>
       <c r="X360" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="Y360" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="Z360" t="s" s="2">
         <v>43</v>
@@ -43707,7 +43715,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43736,7 +43744,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43762,14 +43770,14 @@
         <v>52</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M361" s="2"/>
       <c r="N361" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="O361" t="s" s="2">
         <v>43</v>
@@ -43818,7 +43826,7 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
@@ -43847,7 +43855,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43873,16 +43881,16 @@
         <v>178</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -43931,7 +43939,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>41</v>
@@ -43960,7 +43968,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -43986,16 +43994,16 @@
         <v>205</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
@@ -44044,7 +44052,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -44073,7 +44081,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44099,10 +44107,10 @@
         <v>311</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M364" s="2"/>
       <c r="N364" s="2"/>
@@ -44153,7 +44161,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
@@ -44182,7 +44190,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44291,7 +44299,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44402,7 +44410,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44515,7 +44523,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44550,7 +44558,7 @@
         <v>678</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
@@ -44599,7 +44607,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>50</v>
@@ -44628,7 +44636,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44654,14 +44662,14 @@
         <v>430</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M369" s="2"/>
       <c r="N369" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
@@ -44710,7 +44718,7 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>41</v>
@@ -44739,7 +44747,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44765,16 +44773,16 @@
         <v>52</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="M370" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="N370" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="O370" t="s" s="2">
         <v>43</v>
@@ -44823,7 +44831,7 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>41</v>
@@ -44852,7 +44860,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44878,16 +44886,16 @@
         <v>52</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="M371" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="N371" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="O371" t="s" s="2">
         <v>43</v>
@@ -44936,7 +44944,7 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>41</v>
@@ -44965,7 +44973,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -44991,14 +44999,14 @@
         <v>178</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="M372" s="2"/>
       <c r="N372" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="O372" t="s" s="2">
         <v>43</v>
@@ -45026,10 +45034,10 @@
         <v>116</v>
       </c>
       <c r="X372" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Y372" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="Z372" t="s" s="2">
         <v>43</v>
@@ -45047,7 +45055,7 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
@@ -45076,7 +45084,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45102,14 +45110,14 @@
         <v>178</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="M373" s="2"/>
       <c r="N373" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O373" t="s" s="2">
         <v>43</v>
@@ -45137,10 +45145,10 @@
         <v>116</v>
       </c>
       <c r="X373" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="Y373" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="Z373" t="s" s="2">
         <v>43</v>
@@ -45158,7 +45166,7 @@
         <v>43</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>41</v>
@@ -45187,7 +45195,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45213,14 +45221,14 @@
         <v>178</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="M374" s="2"/>
       <c r="N374" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>43</v>
@@ -45248,10 +45256,10 @@
         <v>116</v>
       </c>
       <c r="X374" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="Y374" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="Z374" t="s" s="2">
         <v>43</v>
@@ -45269,7 +45277,7 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>41</v>
@@ -45298,7 +45306,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45324,10 +45332,10 @@
         <v>311</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M375" s="2"/>
       <c r="N375" s="2"/>
@@ -45378,7 +45386,7 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
@@ -45407,7 +45415,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45516,7 +45524,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45627,7 +45635,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45740,7 +45748,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45769,13 +45777,13 @@
         <v>676</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45803,10 +45811,10 @@
         <v>116</v>
       </c>
       <c r="X379" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="Y379" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="Z379" t="s" s="2">
         <v>43</v>
@@ -45824,7 +45832,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>50</v>
@@ -45853,7 +45861,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -45876,17 +45884,17 @@
         <v>43</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="M380" s="2"/>
       <c r="N380" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45935,7 +45943,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -45964,7 +45972,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -45987,17 +45995,17 @@
         <v>43</v>
       </c>
       <c r="J381" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="M381" s="2"/>
       <c r="N381" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46046,7 +46054,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13446" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13437" uniqueCount="1078">
   <si>
     <t>Path</t>
   </si>
@@ -1468,10 +1468,7 @@
     <t>Required to group or associate information items with common characteristics. For example: admission information or prior treatments.</t>
   </si>
   <si>
-    <t>The valuset used for additional information category codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-informationcategory</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBSupportingInfoType</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.code</t>
@@ -12215,13 +12212,11 @@
         <v>43</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X78" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X78" s="2"/>
+      <c r="Y78" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>43</v>
@@ -12268,7 +12263,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12294,16 +12289,16 @@
         <v>178</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -12331,11 +12326,11 @@
         <v>116</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>43</v>
       </c>
@@ -12352,7 +12347,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -12381,7 +12376,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12404,13 +12399,13 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -12461,7 +12456,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -12490,7 +12485,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12513,19 +12508,19 @@
         <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -12574,7 +12569,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -12603,7 +12598,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12629,16 +12624,16 @@
         <v>104</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -12666,11 +12661,11 @@
         <v>116</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>43</v>
       </c>
@@ -12687,7 +12682,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -12719,7 +12714,7 @@
         <v>447</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C83" t="s" s="2">
         <v>43</v>
@@ -12744,7 +12739,7 @@
         <v>311</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>449</v>
@@ -13320,7 +13315,7 @@
         <v>43</v>
       </c>
       <c r="R88" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>43</v>
@@ -13335,13 +13330,11 @@
         <v>43</v>
       </c>
       <c r="W88" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X88" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X88" s="2"/>
+      <c r="Y88" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z88" t="s" s="2">
         <v>43</v>
@@ -13388,7 +13381,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13414,16 +13407,16 @@
         <v>178</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>43</v>
@@ -13452,7 +13445,7 @@
       </c>
       <c r="X89" s="2"/>
       <c r="Y89" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>43</v>
@@ -13470,7 +13463,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -13499,7 +13492,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13522,13 +13515,13 @@
         <v>43</v>
       </c>
       <c r="J90" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -13579,7 +13572,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -13608,7 +13601,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13631,19 +13624,19 @@
         <v>43</v>
       </c>
       <c r="J91" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K91" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K91" t="s" s="2">
+      <c r="L91" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -13692,7 +13685,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -13721,7 +13714,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13747,16 +13740,16 @@
         <v>104</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -13784,11 +13777,11 @@
         <v>116</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z92" t="s" s="2">
         <v>43</v>
       </c>
@@ -13805,7 +13798,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -13837,7 +13830,7 @@
         <v>447</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C93" t="s" s="2">
         <v>43</v>
@@ -13862,7 +13855,7 @@
         <v>311</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L93" t="s" s="2">
         <v>449</v>
@@ -14438,7 +14431,7 @@
         <v>43</v>
       </c>
       <c r="R98" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>43</v>
@@ -14453,13 +14446,11 @@
         <v>43</v>
       </c>
       <c r="W98" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X98" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X98" s="2"/>
+      <c r="Y98" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z98" t="s" s="2">
         <v>43</v>
@@ -14506,7 +14497,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14532,16 +14523,16 @@
         <v>178</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>43</v>
@@ -14570,7 +14561,7 @@
       </c>
       <c r="X99" s="2"/>
       <c r="Y99" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>43</v>
@@ -14588,7 +14579,7 @@
         <v>43</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>41</v>
@@ -14617,7 +14608,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14640,13 +14631,13 @@
         <v>43</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -14697,7 +14688,7 @@
         <v>43</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -14726,7 +14717,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14749,19 +14740,19 @@
         <v>43</v>
       </c>
       <c r="J101" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K101" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K101" t="s" s="2">
+      <c r="L101" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L101" t="s" s="2">
+      <c r="M101" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>43</v>
@@ -14810,7 +14801,7 @@
         <v>43</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -14839,7 +14830,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14865,16 +14856,16 @@
         <v>104</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>43</v>
@@ -14902,11 +14893,11 @@
         <v>116</v>
       </c>
       <c r="X102" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y102" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y102" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z102" t="s" s="2">
         <v>43</v>
       </c>
@@ -14923,7 +14914,7 @@
         <v>43</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>41</v>
@@ -14955,7 +14946,7 @@
         <v>447</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C103" t="s" s="2">
         <v>43</v>
@@ -14980,7 +14971,7 @@
         <v>311</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>449</v>
@@ -15556,7 +15547,7 @@
         <v>43</v>
       </c>
       <c r="R108" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>43</v>
@@ -15571,13 +15562,11 @@
         <v>43</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X108" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X108" s="2"/>
+      <c r="Y108" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>43</v>
@@ -15624,7 +15613,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15650,16 +15639,16 @@
         <v>178</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M109" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>43</v>
@@ -15688,7 +15677,7 @@
       </c>
       <c r="X109" s="2"/>
       <c r="Y109" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>43</v>
@@ -15706,7 +15695,7 @@
         <v>43</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -15735,7 +15724,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15758,13 +15747,13 @@
         <v>43</v>
       </c>
       <c r="J110" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K110" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K110" t="s" s="2">
+      <c r="L110" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -15815,7 +15804,7 @@
         <v>43</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>41</v>
@@ -15844,7 +15833,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15867,19 +15856,19 @@
         <v>43</v>
       </c>
       <c r="J111" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K111" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K111" t="s" s="2">
+      <c r="L111" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>43</v>
@@ -15928,7 +15917,7 @@
         <v>43</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>41</v>
@@ -15957,7 +15946,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15983,16 +15972,16 @@
         <v>104</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="M112" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>43</v>
@@ -16020,11 +16009,11 @@
         <v>116</v>
       </c>
       <c r="X112" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y112" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y112" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z112" t="s" s="2">
         <v>43</v>
       </c>
@@ -16041,7 +16030,7 @@
         <v>43</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>41</v>
@@ -16073,7 +16062,7 @@
         <v>447</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>43</v>
@@ -16098,7 +16087,7 @@
         <v>311</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>449</v>
@@ -16674,7 +16663,7 @@
         <v>43</v>
       </c>
       <c r="R118" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>43</v>
@@ -16689,13 +16678,11 @@
         <v>43</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X118" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X118" s="2"/>
+      <c r="Y118" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>43</v>
@@ -16742,7 +16729,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16768,16 +16755,16 @@
         <v>178</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>43</v>
@@ -16805,11 +16792,11 @@
         <v>116</v>
       </c>
       <c r="X119" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Y119" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Y119" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="Z119" t="s" s="2">
         <v>43</v>
       </c>
@@ -16826,7 +16813,7 @@
         <v>43</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>41</v>
@@ -16855,7 +16842,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16878,13 +16865,13 @@
         <v>43</v>
       </c>
       <c r="J120" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K120" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K120" t="s" s="2">
+      <c r="L120" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
@@ -16935,7 +16922,7 @@
         <v>43</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>41</v>
@@ -16964,7 +16951,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16987,19 +16974,19 @@
         <v>43</v>
       </c>
       <c r="J121" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K121" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K121" t="s" s="2">
+      <c r="L121" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>43</v>
@@ -17048,7 +17035,7 @@
         <v>43</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -17077,7 +17064,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -17103,16 +17090,16 @@
         <v>104</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L122" t="s" s="2">
+      <c r="M122" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M122" t="s" s="2">
+      <c r="N122" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>43</v>
@@ -17140,11 +17127,11 @@
         <v>116</v>
       </c>
       <c r="X122" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y122" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y122" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z122" t="s" s="2">
         <v>43</v>
       </c>
@@ -17161,7 +17148,7 @@
         <v>43</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
@@ -17193,7 +17180,7 @@
         <v>447</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>43</v>
@@ -17218,7 +17205,7 @@
         <v>311</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="L123" t="s" s="2">
         <v>449</v>
@@ -17794,7 +17781,7 @@
         <v>43</v>
       </c>
       <c r="R128" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>43</v>
@@ -17809,13 +17796,11 @@
         <v>43</v>
       </c>
       <c r="W128" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X128" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X128" s="2"/>
+      <c r="Y128" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z128" t="s" s="2">
         <v>43</v>
@@ -17862,7 +17847,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17888,16 +17873,16 @@
         <v>178</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L129" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M129" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>43</v>
@@ -17926,7 +17911,7 @@
       </c>
       <c r="X129" s="2"/>
       <c r="Y129" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>43</v>
@@ -17944,7 +17929,7 @@
         <v>43</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>41</v>
@@ -17973,7 +17958,7 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17996,13 +17981,13 @@
         <v>43</v>
       </c>
       <c r="J130" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K130" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K130" t="s" s="2">
+      <c r="L130" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
@@ -18053,7 +18038,7 @@
         <v>43</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>41</v>
@@ -18082,7 +18067,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -18105,19 +18090,19 @@
         <v>43</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K131" t="s" s="2">
+      <c r="L131" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>43</v>
@@ -18166,7 +18151,7 @@
         <v>43</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>41</v>
@@ -18195,7 +18180,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -18221,16 +18206,16 @@
         <v>104</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="M132" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M132" t="s" s="2">
+      <c r="N132" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N132" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -18258,11 +18243,11 @@
         <v>116</v>
       </c>
       <c r="X132" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y132" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y132" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z132" t="s" s="2">
         <v>43</v>
       </c>
@@ -18279,7 +18264,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>41</v>
@@ -18311,7 +18296,7 @@
         <v>447</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C133" t="s" s="2">
         <v>43</v>
@@ -18336,7 +18321,7 @@
         <v>311</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>449</v>
@@ -18912,7 +18897,7 @@
         <v>43</v>
       </c>
       <c r="R138" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>43</v>
@@ -18927,13 +18912,11 @@
         <v>43</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X138" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X138" s="2"/>
+      <c r="Y138" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y138" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>43</v>
@@ -18980,7 +18963,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -19006,16 +18989,16 @@
         <v>178</v>
       </c>
       <c r="K139" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L139" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M139" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>43</v>
@@ -19043,11 +19026,11 @@
         <v>116</v>
       </c>
       <c r="X139" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Y139" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Y139" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="Z139" t="s" s="2">
         <v>43</v>
       </c>
@@ -19064,7 +19047,7 @@
         <v>43</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>41</v>
@@ -19093,7 +19076,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -19116,13 +19099,13 @@
         <v>43</v>
       </c>
       <c r="J140" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K140" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K140" t="s" s="2">
+      <c r="L140" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
@@ -19173,7 +19156,7 @@
         <v>43</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>41</v>
@@ -19202,7 +19185,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19225,19 +19208,19 @@
         <v>43</v>
       </c>
       <c r="J141" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K141" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K141" t="s" s="2">
+      <c r="L141" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="M141" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>43</v>
@@ -19286,7 +19269,7 @@
         <v>43</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
@@ -19315,7 +19298,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19341,16 +19324,16 @@
         <v>104</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L142" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L142" t="s" s="2">
+      <c r="M142" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O142" t="s" s="2">
         <v>43</v>
@@ -19378,11 +19361,11 @@
         <v>116</v>
       </c>
       <c r="X142" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y142" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y142" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z142" t="s" s="2">
         <v>43</v>
       </c>
@@ -19399,7 +19382,7 @@
         <v>43</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>41</v>
@@ -19431,7 +19414,7 @@
         <v>447</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>43</v>
@@ -19456,7 +19439,7 @@
         <v>311</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L143" t="s" s="2">
         <v>449</v>
@@ -20032,7 +20015,7 @@
         <v>43</v>
       </c>
       <c r="R148" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="S148" t="s" s="2">
         <v>43</v>
@@ -20047,13 +20030,11 @@
         <v>43</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X148" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X148" s="2"/>
+      <c r="Y148" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z148" t="s" s="2">
         <v>43</v>
@@ -20100,7 +20081,7 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -20126,16 +20107,16 @@
         <v>178</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M149" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>43</v>
@@ -20163,11 +20144,11 @@
         <v>116</v>
       </c>
       <c r="X149" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Y149" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="Y149" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="Z149" t="s" s="2">
         <v>43</v>
       </c>
@@ -20184,7 +20165,7 @@
         <v>43</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -20213,7 +20194,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20236,13 +20217,13 @@
         <v>43</v>
       </c>
       <c r="J150" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K150" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K150" t="s" s="2">
+      <c r="L150" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
@@ -20293,7 +20274,7 @@
         <v>43</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>41</v>
@@ -20322,7 +20303,7 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20345,19 +20326,19 @@
         <v>43</v>
       </c>
       <c r="J151" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K151" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K151" t="s" s="2">
+      <c r="L151" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L151" t="s" s="2">
+      <c r="M151" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M151" t="s" s="2">
+      <c r="N151" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O151" t="s" s="2">
         <v>43</v>
@@ -20406,7 +20387,7 @@
         <v>43</v>
       </c>
       <c r="AE151" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF151" t="s" s="2">
         <v>41</v>
@@ -20435,7 +20416,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20461,16 +20442,16 @@
         <v>104</v>
       </c>
       <c r="K152" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L152" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L152" t="s" s="2">
+      <c r="M152" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M152" t="s" s="2">
+      <c r="N152" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N152" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O152" t="s" s="2">
         <v>43</v>
@@ -20498,11 +20479,11 @@
         <v>116</v>
       </c>
       <c r="X152" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y152" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y152" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z152" t="s" s="2">
         <v>43</v>
       </c>
@@ -20519,7 +20500,7 @@
         <v>43</v>
       </c>
       <c r="AE152" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF152" t="s" s="2">
         <v>41</v>
@@ -20551,7 +20532,7 @@
         <v>447</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>43</v>
@@ -20576,7 +20557,7 @@
         <v>311</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L153" t="s" s="2">
         <v>449</v>
@@ -21152,7 +21133,7 @@
         <v>43</v>
       </c>
       <c r="R158" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>43</v>
@@ -21167,13 +21148,11 @@
         <v>43</v>
       </c>
       <c r="W158" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X158" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X158" s="2"/>
+      <c r="Y158" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="Y158" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="Z158" t="s" s="2">
         <v>43</v>
@@ -21220,7 +21199,7 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21246,16 +21225,16 @@
         <v>178</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L159" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="M159" t="s" s="2">
         <v>240</v>
       </c>
       <c r="N159" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>43</v>
@@ -21284,7 +21263,7 @@
       </c>
       <c r="X159" s="2"/>
       <c r="Y159" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>43</v>
@@ -21302,7 +21281,7 @@
         <v>43</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>41</v>
@@ -21331,7 +21310,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21354,13 +21333,13 @@
         <v>43</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="K160" t="s" s="2">
+      <c r="L160" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
@@ -21411,7 +21390,7 @@
         <v>43</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>41</v>
@@ -21440,7 +21419,7 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21463,19 +21442,19 @@
         <v>43</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="L161" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="M161" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="M161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>43</v>
@@ -21524,7 +21503,7 @@
         <v>43</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>41</v>
@@ -21553,7 +21532,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21579,16 +21558,16 @@
         <v>104</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>43</v>
@@ -21616,11 +21595,11 @@
         <v>116</v>
       </c>
       <c r="X162" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Y162" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Y162" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="Z162" t="s" s="2">
         <v>43</v>
       </c>
@@ -21637,7 +21616,7 @@
         <v>43</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>41</v>
@@ -21666,7 +21645,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21692,14 +21671,14 @@
         <v>311</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L163" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>43</v>
@@ -21748,7 +21727,7 @@
         <v>43</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>41</v>
@@ -21777,7 +21756,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21886,7 +21865,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21997,7 +21976,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -22110,7 +22089,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22136,16 +22115,16 @@
         <v>420</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L167" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L167" t="s" s="2">
+      <c r="M167" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="M167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>43</v>
@@ -22194,7 +22173,7 @@
         <v>43</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>50</v>
@@ -22223,7 +22202,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22246,17 +22225,17 @@
         <v>43</v>
       </c>
       <c r="J168" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="K168" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="K168" t="s" s="2">
+      <c r="L168" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>43</v>
@@ -22284,11 +22263,11 @@
         <v>116</v>
       </c>
       <c r="X168" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="Y168" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="Y168" t="s" s="2">
-        <v>538</v>
-      </c>
       <c r="Z168" t="s" s="2">
         <v>43</v>
       </c>
@@ -22305,7 +22284,7 @@
         <v>43</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>50</v>
@@ -22334,7 +22313,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22360,16 +22339,16 @@
         <v>178</v>
       </c>
       <c r="K169" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="L169" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="L169" t="s" s="2">
+      <c r="M169" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="M169" t="s" s="2">
+      <c r="N169" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="N169" t="s" s="2">
-        <v>543</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>43</v>
@@ -22397,11 +22376,11 @@
         <v>116</v>
       </c>
       <c r="X169" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Y169" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="Y169" t="s" s="2">
-        <v>545</v>
-      </c>
       <c r="Z169" t="s" s="2">
         <v>43</v>
       </c>
@@ -22418,7 +22397,7 @@
         <v>43</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>41</v>
@@ -22447,7 +22426,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22473,14 +22452,14 @@
         <v>178</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L170" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="L170" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22508,11 +22487,11 @@
         <v>116</v>
       </c>
       <c r="X170" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="Y170" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="Y170" t="s" s="2">
-        <v>551</v>
-      </c>
       <c r="Z170" t="s" s="2">
         <v>43</v>
       </c>
@@ -22529,7 +22508,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>41</v>
@@ -22558,7 +22537,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22584,16 +22563,16 @@
         <v>178</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="L171" t="s" s="2">
+      <c r="M171" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="M171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22621,11 +22600,11 @@
         <v>116</v>
       </c>
       <c r="X171" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Y171" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="Y171" t="s" s="2">
-        <v>558</v>
-      </c>
       <c r="Z171" t="s" s="2">
         <v>43</v>
       </c>
@@ -22642,7 +22621,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -22671,7 +22650,7 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22697,14 +22676,14 @@
         <v>311</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="L172" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22753,7 +22732,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
@@ -22782,7 +22761,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22891,7 +22870,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -23002,7 +22981,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23115,7 +23094,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23141,14 +23120,14 @@
         <v>420</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L176" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>43</v>
@@ -23197,7 +23176,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>50</v>
@@ -23226,7 +23205,7 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23252,14 +23231,14 @@
         <v>178</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>43</v>
@@ -23287,11 +23266,11 @@
         <v>116</v>
       </c>
       <c r="X177" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="Y177" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="Y177" t="s" s="2">
-        <v>573</v>
-      </c>
       <c r="Z177" t="s" s="2">
         <v>43</v>
       </c>
@@ -23308,7 +23287,7 @@
         <v>43</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -23337,7 +23316,7 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23363,14 +23342,14 @@
         <v>265</v>
       </c>
       <c r="K178" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L178" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="L178" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>43</v>
@@ -23419,7 +23398,7 @@
         <v>43</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>
@@ -23448,7 +23427,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23471,17 +23450,17 @@
         <v>43</v>
       </c>
       <c r="J179" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="K179" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="K179" t="s" s="2">
+      <c r="L179" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="L179" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>43</v>
@@ -23509,11 +23488,11 @@
         <v>116</v>
       </c>
       <c r="X179" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="Y179" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="Y179" t="s" s="2">
-        <v>584</v>
-      </c>
       <c r="Z179" t="s" s="2">
         <v>43</v>
       </c>
@@ -23530,7 +23509,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>50</v>
@@ -23559,7 +23538,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23582,17 +23561,17 @@
         <v>43</v>
       </c>
       <c r="J180" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="K180" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="K180" t="s" s="2">
+      <c r="L180" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23641,7 +23620,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23670,7 +23649,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23696,14 +23675,14 @@
         <v>420</v>
       </c>
       <c r="K181" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="L181" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="L181" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23752,7 +23731,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23781,7 +23760,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23807,16 +23786,16 @@
         <v>311</v>
       </c>
       <c r="K182" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="L182" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="L182" t="s" s="2">
+      <c r="M182" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="M182" t="s" s="2">
+      <c r="N182" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>43</v>
@@ -23865,7 +23844,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>50</v>
@@ -23877,16 +23856,16 @@
         <v>43</v>
       </c>
       <c r="AI182" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AJ182" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL182" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="AJ182" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK182" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL182" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>43</v>
@@ -23894,7 +23873,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -24003,7 +23982,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24114,7 +24093,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24227,7 +24206,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24253,16 +24232,16 @@
         <v>430</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="L186" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="M186" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>43</v>
@@ -24311,7 +24290,7 @@
         <v>43</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>50</v>
@@ -24340,7 +24319,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24363,17 +24342,17 @@
         <v>51</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K187" t="s" s="2">
         <v>253</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24422,7 +24401,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>50</v>
@@ -24451,7 +24430,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24477,16 +24456,16 @@
         <v>52</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L188" t="s" s="2">
+      <c r="M188" t="s" s="2">
         <v>615</v>
       </c>
-      <c r="M188" t="s" s="2">
+      <c r="N188" t="s" s="2">
         <v>616</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>617</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24535,7 +24514,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24564,7 +24543,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24590,14 +24569,14 @@
         <v>311</v>
       </c>
       <c r="K189" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L189" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24646,7 +24625,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24675,7 +24654,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24784,7 +24763,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24895,7 +24874,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -25008,7 +24987,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25031,19 +25010,19 @@
         <v>43</v>
       </c>
       <c r="J193" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="K193" t="s" s="2">
         <v>626</v>
       </c>
-      <c r="K193" t="s" s="2">
+      <c r="L193" t="s" s="2">
         <v>627</v>
       </c>
-      <c r="L193" t="s" s="2">
+      <c r="M193" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="M193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>629</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>630</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -25092,7 +25071,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -25121,7 +25100,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25147,14 +25126,14 @@
         <v>178</v>
       </c>
       <c r="K194" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L194" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -25182,11 +25161,11 @@
         <v>108</v>
       </c>
       <c r="X194" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="Y194" t="s" s="2">
         <v>635</v>
       </c>
-      <c r="Y194" t="s" s="2">
-        <v>636</v>
-      </c>
       <c r="Z194" t="s" s="2">
         <v>43</v>
       </c>
@@ -25203,7 +25182,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>41</v>
@@ -25232,7 +25211,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25255,17 +25234,17 @@
         <v>43</v>
       </c>
       <c r="J195" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="K195" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="K195" t="s" s="2">
+      <c r="L195" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="L195" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25314,7 +25293,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -25343,7 +25322,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25369,14 +25348,14 @@
         <v>311</v>
       </c>
       <c r="K196" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="L196" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>644</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25425,7 +25404,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25454,7 +25433,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25563,7 +25542,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25674,7 +25653,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25787,7 +25766,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25813,14 +25792,14 @@
         <v>420</v>
       </c>
       <c r="K200" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="L200" t="s" s="2">
         <v>650</v>
-      </c>
-      <c r="L200" t="s" s="2">
-        <v>651</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25869,7 +25848,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>50</v>
@@ -25898,7 +25877,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25924,14 +25903,14 @@
         <v>420</v>
       </c>
       <c r="K201" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L201" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="L201" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25980,7 +25959,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -26009,7 +25988,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26035,14 +26014,14 @@
         <v>420</v>
       </c>
       <c r="K202" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="L202" t="s" s="2">
         <v>658</v>
-      </c>
-      <c r="L202" t="s" s="2">
-        <v>659</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -26091,7 +26070,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -26120,7 +26099,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26146,14 +26125,14 @@
         <v>420</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="L203" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="L203" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26202,7 +26181,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26231,7 +26210,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26257,14 +26236,14 @@
         <v>420</v>
       </c>
       <c r="K204" t="s" s="2">
+        <v>665</v>
+      </c>
+      <c r="L204" t="s" s="2">
         <v>666</v>
-      </c>
-      <c r="L204" t="s" s="2">
-        <v>667</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26313,7 +26292,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26342,7 +26321,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26368,14 +26347,14 @@
         <v>178</v>
       </c>
       <c r="K205" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L205" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="L205" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26403,11 +26382,11 @@
         <v>116</v>
       </c>
       <c r="X205" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="Y205" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="Y205" t="s" s="2">
-        <v>674</v>
-      </c>
       <c r="Z205" t="s" s="2">
         <v>43</v>
       </c>
@@ -26424,7 +26403,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26453,7 +26432,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26479,16 +26458,16 @@
         <v>178</v>
       </c>
       <c r="K206" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L206" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="L206" t="s" s="2">
+      <c r="M206" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M206" t="s" s="2">
+      <c r="N206" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26516,11 +26495,11 @@
         <v>116</v>
       </c>
       <c r="X206" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="Y206" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="Y206" t="s" s="2">
-        <v>681</v>
-      </c>
       <c r="Z206" t="s" s="2">
         <v>43</v>
       </c>
@@ -26537,7 +26516,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26566,11 +26545,11 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26592,16 +26571,16 @@
         <v>178</v>
       </c>
       <c r="K207" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="L207" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="L207" t="s" s="2">
+      <c r="M207" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="M207" t="s" s="2">
+      <c r="N207" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>43</v>
@@ -26630,7 +26609,7 @@
       </c>
       <c r="X207" s="2"/>
       <c r="Y207" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Z207" t="s" s="2">
         <v>43</v>
@@ -26648,7 +26627,7 @@
         <v>43</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>50</v>
@@ -26677,7 +26656,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26703,16 +26682,16 @@
         <v>178</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="L208" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="L208" t="s" s="2">
+      <c r="M208" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="M208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26740,11 +26719,11 @@
         <v>116</v>
       </c>
       <c r="X208" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="Y208" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="Y208" t="s" s="2">
-        <v>695</v>
-      </c>
       <c r="Z208" t="s" s="2">
         <v>43</v>
       </c>
@@ -26761,7 +26740,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>41</v>
@@ -26790,7 +26769,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26816,16 +26795,16 @@
         <v>178</v>
       </c>
       <c r="K209" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="L209" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L209" t="s" s="2">
+      <c r="M209" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M209" t="s" s="2">
+      <c r="N209" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26853,11 +26832,11 @@
         <v>116</v>
       </c>
       <c r="X209" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="Y209" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="Y209" t="s" s="2">
-        <v>702</v>
-      </c>
       <c r="Z209" t="s" s="2">
         <v>43</v>
       </c>
@@ -26874,7 +26853,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26903,7 +26882,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26926,17 +26905,17 @@
         <v>43</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K210" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="L210" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="L210" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26985,7 +26964,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -27014,7 +26993,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27037,17 +27016,17 @@
         <v>43</v>
       </c>
       <c r="J211" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="K211" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="K211" t="s" s="2">
+      <c r="L211" t="s" s="2">
         <v>709</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -27075,11 +27054,11 @@
         <v>116</v>
       </c>
       <c r="X211" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="Y211" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="Y211" t="s" s="2">
-        <v>713</v>
-      </c>
       <c r="Z211" t="s" s="2">
         <v>43</v>
       </c>
@@ -27096,7 +27075,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -27125,7 +27104,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27148,17 +27127,17 @@
         <v>43</v>
       </c>
       <c r="J212" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="K212" t="s" s="2">
         <v>715</v>
       </c>
-      <c r="K212" t="s" s="2">
+      <c r="L212" t="s" s="2">
         <v>716</v>
-      </c>
-      <c r="L212" t="s" s="2">
-        <v>717</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27207,7 +27186,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27236,7 +27215,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27259,17 +27238,17 @@
         <v>43</v>
       </c>
       <c r="J213" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="K213" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="K213" t="s" s="2">
+      <c r="L213" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="L213" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27318,7 +27297,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27347,7 +27326,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27370,19 +27349,19 @@
         <v>43</v>
       </c>
       <c r="J214" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="K214" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="K214" t="s" s="2">
+      <c r="L214" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="L214" t="s" s="2">
+      <c r="M214" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="M214" t="s" s="2">
+      <c r="N214" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="N214" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27431,7 +27410,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27460,7 +27439,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27483,19 +27462,19 @@
         <v>43</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K215" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="L215" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="L215" t="s" s="2">
+      <c r="M215" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="M215" t="s" s="2">
+      <c r="N215" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="N215" t="s" s="2">
-        <v>734</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>43</v>
@@ -27544,7 +27523,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27573,7 +27552,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27596,17 +27575,17 @@
         <v>43</v>
       </c>
       <c r="J216" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="K216" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="K216" t="s" s="2">
+      <c r="L216" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="L216" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27655,7 +27634,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27684,7 +27663,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27710,16 +27689,16 @@
         <v>178</v>
       </c>
       <c r="K217" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="L217" t="s" s="2">
         <v>737</v>
       </c>
-      <c r="L217" t="s" s="2">
+      <c r="M217" t="s" s="2">
         <v>738</v>
       </c>
-      <c r="M217" t="s" s="2">
+      <c r="N217" t="s" s="2">
         <v>739</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>740</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27747,11 +27726,11 @@
         <v>116</v>
       </c>
       <c r="X217" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="Y217" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="Y217" t="s" s="2">
-        <v>742</v>
-      </c>
       <c r="Z217" t="s" s="2">
         <v>43</v>
       </c>
@@ -27768,7 +27747,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>41</v>
@@ -27797,7 +27776,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27823,14 +27802,14 @@
         <v>178</v>
       </c>
       <c r="K218" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="L218" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="L218" t="s" s="2">
-        <v>745</v>
       </c>
       <c r="M218" s="2"/>
       <c r="N218" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27858,11 +27837,11 @@
         <v>116</v>
       </c>
       <c r="X218" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="Y218" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="Y218" t="s" s="2">
-        <v>747</v>
-      </c>
       <c r="Z218" t="s" s="2">
         <v>43</v>
       </c>
@@ -27879,7 +27858,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>41</v>
@@ -27908,7 +27887,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27931,17 +27910,17 @@
         <v>43</v>
       </c>
       <c r="J219" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="K219" t="s" s="2">
         <v>749</v>
       </c>
-      <c r="K219" t="s" s="2">
+      <c r="L219" t="s" s="2">
         <v>750</v>
-      </c>
-      <c r="L219" t="s" s="2">
-        <v>751</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -27990,7 +27969,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -28019,7 +27998,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -28045,14 +28024,14 @@
         <v>420</v>
       </c>
       <c r="K220" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="L220" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="L220" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -28101,7 +28080,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -28130,7 +28109,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28156,14 +28135,14 @@
         <v>311</v>
       </c>
       <c r="K221" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="L221" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="L221" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -28203,16 +28182,16 @@
         <v>452</v>
       </c>
       <c r="AB221" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AC221" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD221" t="s" s="2">
         <v>761</v>
       </c>
-      <c r="AC221" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD221" t="s" s="2">
-        <v>762</v>
-      </c>
       <c r="AE221" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28241,7 +28220,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28350,7 +28329,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28461,7 +28440,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28574,7 +28553,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28600,16 +28579,16 @@
         <v>178</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="L225" t="s" s="2">
         <v>767</v>
       </c>
-      <c r="L225" t="s" s="2">
+      <c r="M225" t="s" s="2">
         <v>768</v>
       </c>
-      <c r="M225" t="s" s="2">
+      <c r="N225" t="s" s="2">
         <v>769</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>770</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28637,11 +28616,11 @@
         <v>116</v>
       </c>
       <c r="X225" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="Y225" t="s" s="2">
         <v>771</v>
       </c>
-      <c r="Y225" t="s" s="2">
-        <v>772</v>
-      </c>
       <c r="Z225" t="s" s="2">
         <v>43</v>
       </c>
@@ -28658,7 +28637,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>50</v>
@@ -28687,7 +28666,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28713,16 +28692,16 @@
         <v>178</v>
       </c>
       <c r="K226" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="L226" t="s" s="2">
         <v>774</v>
       </c>
-      <c r="L226" t="s" s="2">
+      <c r="M226" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="M226" t="s" s="2">
+      <c r="N226" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>777</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28750,11 +28729,11 @@
         <v>116</v>
       </c>
       <c r="X226" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="Y226" t="s" s="2">
         <v>778</v>
       </c>
-      <c r="Y226" t="s" s="2">
-        <v>779</v>
-      </c>
       <c r="Z226" t="s" s="2">
         <v>43</v>
       </c>
@@ -28771,7 +28750,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28800,7 +28779,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28823,19 +28802,19 @@
         <v>43</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K227" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="L227" t="s" s="2">
         <v>781</v>
       </c>
-      <c r="L227" t="s" s="2">
+      <c r="M227" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="M227" t="s" s="2">
+      <c r="N227" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>784</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -28884,7 +28863,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28913,7 +28892,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28936,19 +28915,19 @@
         <v>43</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K228" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="L228" t="s" s="2">
         <v>786</v>
       </c>
-      <c r="L228" t="s" s="2">
+      <c r="M228" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="M228" t="s" s="2">
+      <c r="N228" t="s" s="2">
         <v>788</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>789</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28997,7 +28976,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -29026,10 +29005,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C229" t="s" s="2">
         <v>43</v>
@@ -29054,14 +29033,14 @@
         <v>311</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M229" s="2"/>
       <c r="N229" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -29110,7 +29089,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -29139,7 +29118,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29248,7 +29227,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29359,7 +29338,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29472,7 +29451,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29498,16 +29477,16 @@
         <v>178</v>
       </c>
       <c r="K233" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="L233" t="s" s="2">
         <v>767</v>
       </c>
-      <c r="L233" t="s" s="2">
+      <c r="M233" t="s" s="2">
         <v>768</v>
       </c>
-      <c r="M233" t="s" s="2">
+      <c r="N233" t="s" s="2">
         <v>769</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>770</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29536,7 +29515,7 @@
       </c>
       <c r="X233" s="2"/>
       <c r="Y233" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>43</v>
@@ -29554,7 +29533,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>50</v>
@@ -29583,7 +29562,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29609,16 +29588,16 @@
         <v>178</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="L234" t="s" s="2">
         <v>774</v>
       </c>
-      <c r="L234" t="s" s="2">
+      <c r="M234" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="M234" t="s" s="2">
+      <c r="N234" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>777</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29646,11 +29625,11 @@
         <v>116</v>
       </c>
       <c r="X234" t="s" s="2">
+        <v>777</v>
+      </c>
+      <c r="Y234" t="s" s="2">
         <v>778</v>
       </c>
-      <c r="Y234" t="s" s="2">
-        <v>779</v>
-      </c>
       <c r="Z234" t="s" s="2">
         <v>43</v>
       </c>
@@ -29667,7 +29646,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -29696,7 +29675,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29719,19 +29698,19 @@
         <v>43</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K235" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="L235" t="s" s="2">
         <v>781</v>
       </c>
-      <c r="L235" t="s" s="2">
+      <c r="M235" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="M235" t="s" s="2">
+      <c r="N235" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="N235" t="s" s="2">
-        <v>784</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29780,7 +29759,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29809,7 +29788,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29832,19 +29811,19 @@
         <v>43</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K236" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="L236" t="s" s="2">
         <v>786</v>
       </c>
-      <c r="L236" t="s" s="2">
+      <c r="M236" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="M236" t="s" s="2">
+      <c r="N236" t="s" s="2">
         <v>788</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>789</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29893,7 +29872,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29922,10 +29901,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C237" t="s" s="2">
         <v>43</v>
@@ -29950,14 +29929,14 @@
         <v>311</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -30006,7 +29985,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -30035,7 +30014,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30144,7 +30123,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30255,7 +30234,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30368,7 +30347,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30394,16 +30373,16 @@
         <v>178</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>766</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>767</v>
       </c>
-      <c r="L241" t="s" s="2">
+      <c r="M241" t="s" s="2">
         <v>768</v>
       </c>
-      <c r="M241" t="s" s="2">
+      <c r="N241" t="s" s="2">
         <v>769</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>770</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30413,7 +30392,7 @@
         <v>43</v>
       </c>
       <c r="R241" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="S241" t="s" s="2">
         <v>43</v>
@@ -30431,11 +30410,11 @@
         <v>116</v>
       </c>
       <c r="X241" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="Y241" t="s" s="2">
         <v>771</v>
       </c>
-      <c r="Y241" t="s" s="2">
-        <v>772</v>
-      </c>
       <c r="Z241" t="s" s="2">
         <v>43</v>
       </c>
@@ -30452,7 +30431,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>50</v>
@@ -30481,7 +30460,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30507,16 +30486,16 @@
         <v>178</v>
       </c>
       <c r="K242" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="L242" t="s" s="2">
         <v>774</v>
       </c>
-      <c r="L242" t="s" s="2">
+      <c r="M242" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="M242" t="s" s="2">
+      <c r="N242" t="s" s="2">
         <v>776</v>
-      </c>
-      <c r="N242" t="s" s="2">
-        <v>777</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30545,7 +30524,7 @@
       </c>
       <c r="X242" s="2"/>
       <c r="Y242" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="Z242" t="s" s="2">
         <v>43</v>
@@ -30563,7 +30542,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30592,7 +30571,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30615,19 +30594,19 @@
         <v>43</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K243" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="L243" t="s" s="2">
         <v>781</v>
       </c>
-      <c r="L243" t="s" s="2">
+      <c r="M243" t="s" s="2">
         <v>782</v>
       </c>
-      <c r="M243" t="s" s="2">
+      <c r="N243" t="s" s="2">
         <v>783</v>
-      </c>
-      <c r="N243" t="s" s="2">
-        <v>784</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30676,7 +30655,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30705,7 +30684,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30728,19 +30707,19 @@
         <v>43</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K244" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="L244" t="s" s="2">
         <v>786</v>
       </c>
-      <c r="L244" t="s" s="2">
+      <c r="M244" t="s" s="2">
         <v>787</v>
       </c>
-      <c r="M244" t="s" s="2">
+      <c r="N244" t="s" s="2">
         <v>788</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>789</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30789,7 +30768,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30818,7 +30797,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30844,10 +30823,10 @@
         <v>311</v>
       </c>
       <c r="K245" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="L245" t="s" s="2">
         <v>798</v>
-      </c>
-      <c r="L245" t="s" s="2">
-        <v>799</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
@@ -30898,7 +30877,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30927,7 +30906,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -31036,7 +31015,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31147,7 +31126,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31260,7 +31239,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31286,14 +31265,14 @@
         <v>420</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -31342,7 +31321,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>50</v>
@@ -31371,7 +31350,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31397,14 +31376,14 @@
         <v>178</v>
       </c>
       <c r="K250" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L250" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="L250" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31432,11 +31411,11 @@
         <v>116</v>
       </c>
       <c r="X250" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="Y250" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="Y250" t="s" s="2">
-        <v>674</v>
-      </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
       </c>
@@ -31453,7 +31432,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31482,7 +31461,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31508,16 +31487,16 @@
         <v>178</v>
       </c>
       <c r="K251" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L251" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="L251" t="s" s="2">
-        <v>677</v>
-      </c>
       <c r="M251" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31545,11 +31524,11 @@
         <v>116</v>
       </c>
       <c r="X251" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="Y251" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="Y251" t="s" s="2">
-        <v>681</v>
-      </c>
       <c r="Z251" t="s" s="2">
         <v>43</v>
       </c>
@@ -31566,7 +31545,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31595,11 +31574,11 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -31621,16 +31600,16 @@
         <v>178</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L252" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="M252" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="M252" t="s" s="2">
+      <c r="N252" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="N252" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31659,7 +31638,7 @@
       </c>
       <c r="X252" s="2"/>
       <c r="Y252" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
@@ -31677,7 +31656,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>50</v>
@@ -31706,7 +31685,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31732,16 +31711,16 @@
         <v>178</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L253" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M253" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="M253" t="s" s="2">
+      <c r="N253" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="N253" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31769,11 +31748,11 @@
         <v>116</v>
       </c>
       <c r="X253" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="Y253" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="Y253" t="s" s="2">
-        <v>695</v>
-      </c>
       <c r="Z253" t="s" s="2">
         <v>43</v>
       </c>
@@ -31790,7 +31769,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31819,7 +31798,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31845,16 +31824,16 @@
         <v>178</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L254" t="s" s="2">
+      <c r="M254" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M254" t="s" s="2">
+      <c r="N254" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N254" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31882,11 +31861,11 @@
         <v>116</v>
       </c>
       <c r="X254" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="Y254" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="Y254" t="s" s="2">
-        <v>702</v>
-      </c>
       <c r="Z254" t="s" s="2">
         <v>43</v>
       </c>
@@ -31903,7 +31882,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31932,7 +31911,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31955,17 +31934,17 @@
         <v>43</v>
       </c>
       <c r="J255" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -32014,7 +31993,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -32043,7 +32022,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32066,17 +32045,17 @@
         <v>43</v>
       </c>
       <c r="J256" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="K256" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="K256" t="s" s="2">
+      <c r="L256" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="L256" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="M256" s="2"/>
       <c r="N256" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -32125,7 +32104,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -32154,7 +32133,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32177,19 +32156,19 @@
         <v>43</v>
       </c>
       <c r="J257" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="K257" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="K257" t="s" s="2">
+      <c r="L257" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="L257" t="s" s="2">
+      <c r="M257" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="M257" t="s" s="2">
+      <c r="N257" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="N257" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>43</v>
@@ -32238,7 +32217,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -32267,7 +32246,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32290,19 +32269,19 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K258" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="L258" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="L258" t="s" s="2">
+      <c r="M258" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="M258" t="s" s="2">
+      <c r="N258" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="N258" t="s" s="2">
-        <v>734</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32351,7 +32330,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32380,7 +32359,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32403,17 +32382,17 @@
         <v>43</v>
       </c>
       <c r="J259" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="K259" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="K259" t="s" s="2">
+      <c r="L259" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="L259" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32462,7 +32441,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32491,7 +32470,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32517,14 +32496,14 @@
         <v>420</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32573,7 +32552,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32602,7 +32581,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32628,10 +32607,10 @@
         <v>43</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>823</v>
-      </c>
-      <c r="L261" t="s" s="2">
-        <v>824</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
@@ -32682,7 +32661,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32711,7 +32690,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32737,10 +32716,10 @@
         <v>311</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
@@ -32791,7 +32770,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32820,7 +32799,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32929,7 +32908,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33040,7 +33019,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33153,7 +33132,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33179,14 +33158,14 @@
         <v>420</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M266" s="2"/>
       <c r="N266" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -33235,7 +33214,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>50</v>
@@ -33264,7 +33243,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33290,14 +33269,14 @@
         <v>178</v>
       </c>
       <c r="K267" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="L267" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="L267" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" t="s" s="2">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33325,11 +33304,11 @@
         <v>116</v>
       </c>
       <c r="X267" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="Y267" t="s" s="2">
         <v>673</v>
       </c>
-      <c r="Y267" t="s" s="2">
-        <v>674</v>
-      </c>
       <c r="Z267" t="s" s="2">
         <v>43</v>
       </c>
@@ -33346,7 +33325,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33375,7 +33354,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33401,16 +33380,16 @@
         <v>178</v>
       </c>
       <c r="K268" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L268" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="L268" t="s" s="2">
+      <c r="M268" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M268" t="s" s="2">
+      <c r="N268" t="s" s="2">
         <v>678</v>
-      </c>
-      <c r="N268" t="s" s="2">
-        <v>679</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33438,11 +33417,11 @@
         <v>116</v>
       </c>
       <c r="X268" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="Y268" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="Y268" t="s" s="2">
-        <v>681</v>
-      </c>
       <c r="Z268" t="s" s="2">
         <v>43</v>
       </c>
@@ -33459,7 +33438,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33488,11 +33467,11 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -33514,16 +33493,16 @@
         <v>178</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L269" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="M269" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="M269" t="s" s="2">
+      <c r="N269" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="N269" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33551,11 +33530,11 @@
         <v>116</v>
       </c>
       <c r="X269" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="Y269" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="Y269" t="s" s="2">
-        <v>835</v>
-      </c>
       <c r="Z269" t="s" s="2">
         <v>43</v>
       </c>
@@ -33572,7 +33551,7 @@
         <v>43</v>
       </c>
       <c r="AE269" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>50</v>
@@ -33601,7 +33580,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33627,16 +33606,16 @@
         <v>178</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33664,11 +33643,11 @@
         <v>116</v>
       </c>
       <c r="X270" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="Y270" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="Y270" t="s" s="2">
-        <v>695</v>
-      </c>
       <c r="Z270" t="s" s="2">
         <v>43</v>
       </c>
@@ -33685,7 +33664,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33714,7 +33693,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33740,16 +33719,16 @@
         <v>178</v>
       </c>
       <c r="K271" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="L271" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L271" t="s" s="2">
+      <c r="M271" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M271" t="s" s="2">
+      <c r="N271" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N271" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33777,11 +33756,11 @@
         <v>116</v>
       </c>
       <c r="X271" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="Y271" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="Y271" t="s" s="2">
-        <v>702</v>
-      </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
       </c>
@@ -33798,7 +33777,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33827,7 +33806,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33850,17 +33829,17 @@
         <v>43</v>
       </c>
       <c r="J272" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M272" s="2"/>
       <c r="N272" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33909,7 +33888,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33938,7 +33917,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33961,17 +33940,17 @@
         <v>43</v>
       </c>
       <c r="J273" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="K273" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="K273" t="s" s="2">
+      <c r="L273" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="L273" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -34020,7 +33999,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -34049,7 +34028,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34072,19 +34051,19 @@
         <v>43</v>
       </c>
       <c r="J274" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="K274" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="K274" t="s" s="2">
+      <c r="L274" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="L274" t="s" s="2">
+      <c r="M274" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="M274" t="s" s="2">
+      <c r="N274" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="N274" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -34133,7 +34112,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -34162,7 +34141,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34185,19 +34164,19 @@
         <v>43</v>
       </c>
       <c r="J275" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K275" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="L275" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="L275" t="s" s="2">
+      <c r="M275" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="M275" t="s" s="2">
+      <c r="N275" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="N275" t="s" s="2">
-        <v>734</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -34246,7 +34225,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -34275,7 +34254,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34298,17 +34277,17 @@
         <v>43</v>
       </c>
       <c r="J276" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="K276" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="K276" t="s" s="2">
+      <c r="L276" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="L276" t="s" s="2">
-        <v>588</v>
       </c>
       <c r="M276" s="2"/>
       <c r="N276" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34357,7 +34336,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34386,7 +34365,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34412,14 +34391,14 @@
         <v>420</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M277" s="2"/>
       <c r="N277" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34468,7 +34447,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34497,7 +34476,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34523,10 +34502,10 @@
         <v>43</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
@@ -34577,7 +34556,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34606,7 +34585,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34632,14 +34611,14 @@
         <v>311</v>
       </c>
       <c r="K279" t="s" s="2">
+        <v>847</v>
+      </c>
+      <c r="L279" t="s" s="2">
         <v>848</v>
-      </c>
-      <c r="L279" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34688,7 +34667,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34717,7 +34696,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34826,7 +34805,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34937,7 +34916,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -35050,7 +35029,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35076,14 +35055,14 @@
         <v>420</v>
       </c>
       <c r="K283" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="L283" t="s" s="2">
         <v>855</v>
-      </c>
-      <c r="L283" t="s" s="2">
-        <v>856</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -35132,7 +35111,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -35161,7 +35140,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35187,14 +35166,14 @@
         <v>420</v>
       </c>
       <c r="K284" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="L284" t="s" s="2">
         <v>859</v>
-      </c>
-      <c r="L284" t="s" s="2">
-        <v>860</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -35243,7 +35222,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -35272,7 +35251,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35298,14 +35277,14 @@
         <v>420</v>
       </c>
       <c r="K285" t="s" s="2">
+        <v>862</v>
+      </c>
+      <c r="L285" t="s" s="2">
         <v>863</v>
-      </c>
-      <c r="L285" t="s" s="2">
-        <v>864</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -35354,7 +35333,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35383,7 +35362,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35406,17 +35385,17 @@
         <v>43</v>
       </c>
       <c r="J286" t="s" s="2">
+        <v>866</v>
+      </c>
+      <c r="K286" t="s" s="2">
         <v>867</v>
       </c>
-      <c r="K286" t="s" s="2">
+      <c r="L286" t="s" s="2">
         <v>868</v>
-      </c>
-      <c r="L286" t="s" s="2">
-        <v>869</v>
       </c>
       <c r="M286" s="2"/>
       <c r="N286" t="s" s="2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>43</v>
@@ -35465,7 +35444,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35494,11 +35473,11 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -35520,16 +35499,16 @@
         <v>178</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L287" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="M287" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="M287" t="s" s="2">
+      <c r="N287" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="N287" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>43</v>
@@ -35557,11 +35536,11 @@
         <v>116</v>
       </c>
       <c r="X287" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="Y287" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="Y287" t="s" s="2">
-        <v>835</v>
-      </c>
       <c r="Z287" t="s" s="2">
         <v>43</v>
       </c>
@@ -35578,7 +35557,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>50</v>
@@ -35607,7 +35586,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35633,16 +35612,16 @@
         <v>178</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L288" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M288" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="M288" t="s" s="2">
+      <c r="N288" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="N288" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35670,11 +35649,11 @@
         <v>116</v>
       </c>
       <c r="X288" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="Y288" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="Y288" t="s" s="2">
-        <v>695</v>
-      </c>
       <c r="Z288" t="s" s="2">
         <v>43</v>
       </c>
@@ -35691,7 +35670,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35720,7 +35699,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35746,16 +35725,16 @@
         <v>178</v>
       </c>
       <c r="K289" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="L289" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L289" t="s" s="2">
+      <c r="M289" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M289" t="s" s="2">
+      <c r="N289" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N289" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35783,11 +35762,11 @@
         <v>116</v>
       </c>
       <c r="X289" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="Y289" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="Y289" t="s" s="2">
-        <v>702</v>
-      </c>
       <c r="Z289" t="s" s="2">
         <v>43</v>
       </c>
@@ -35804,7 +35783,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35833,7 +35812,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35856,17 +35835,17 @@
         <v>43</v>
       </c>
       <c r="J290" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35915,7 +35894,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35944,7 +35923,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -35967,17 +35946,17 @@
         <v>43</v>
       </c>
       <c r="J291" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="K291" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="K291" t="s" s="2">
+      <c r="L291" t="s" s="2">
         <v>709</v>
-      </c>
-      <c r="L291" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="M291" s="2"/>
       <c r="N291" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -36005,11 +35984,11 @@
         <v>116</v>
       </c>
       <c r="X291" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="Y291" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="Y291" t="s" s="2">
-        <v>713</v>
-      </c>
       <c r="Z291" t="s" s="2">
         <v>43</v>
       </c>
@@ -36026,7 +36005,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -36055,7 +36034,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36078,17 +36057,17 @@
         <v>43</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M292" s="2"/>
       <c r="N292" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -36137,7 +36116,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36166,7 +36145,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36189,17 +36168,17 @@
         <v>43</v>
       </c>
       <c r="J293" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="K293" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="K293" t="s" s="2">
+      <c r="L293" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="L293" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="M293" s="2"/>
       <c r="N293" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -36248,7 +36227,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36277,7 +36256,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36300,19 +36279,19 @@
         <v>43</v>
       </c>
       <c r="J294" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="K294" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="K294" t="s" s="2">
+      <c r="L294" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="L294" t="s" s="2">
+      <c r="M294" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="M294" t="s" s="2">
+      <c r="N294" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="N294" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="O294" t="s" s="2">
         <v>43</v>
@@ -36361,7 +36340,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36390,7 +36369,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36413,19 +36392,19 @@
         <v>43</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K295" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="L295" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="L295" t="s" s="2">
+      <c r="M295" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="M295" t="s" s="2">
+      <c r="N295" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="N295" t="s" s="2">
-        <v>734</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>43</v>
@@ -36474,7 +36453,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36503,7 +36482,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36529,16 +36508,16 @@
         <v>178</v>
       </c>
       <c r="K296" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="L296" t="s" s="2">
         <v>737</v>
       </c>
-      <c r="L296" t="s" s="2">
-        <v>738</v>
-      </c>
       <c r="M296" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>43</v>
@@ -36566,11 +36545,11 @@
         <v>116</v>
       </c>
       <c r="X296" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="Y296" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="Y296" t="s" s="2">
-        <v>742</v>
-      </c>
       <c r="Z296" t="s" s="2">
         <v>43</v>
       </c>
@@ -36587,7 +36566,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>41</v>
@@ -36616,7 +36595,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36642,14 +36621,14 @@
         <v>178</v>
       </c>
       <c r="K297" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="L297" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="L297" t="s" s="2">
-        <v>745</v>
       </c>
       <c r="M297" s="2"/>
       <c r="N297" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36677,11 +36656,11 @@
         <v>116</v>
       </c>
       <c r="X297" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="Y297" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="Y297" t="s" s="2">
-        <v>747</v>
-      </c>
       <c r="Z297" t="s" s="2">
         <v>43</v>
       </c>
@@ -36698,7 +36677,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>41</v>
@@ -36727,7 +36706,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36753,14 +36732,14 @@
         <v>420</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M298" s="2"/>
       <c r="N298" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>43</v>
@@ -36809,7 +36788,7 @@
         <v>43</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>41</v>
@@ -36838,7 +36817,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36864,10 +36843,10 @@
         <v>43</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
@@ -36918,7 +36897,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>41</v>
@@ -36947,7 +36926,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36973,10 +36952,10 @@
         <v>311</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
@@ -37027,7 +37006,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -37056,7 +37035,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37165,7 +37144,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37276,7 +37255,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37389,11 +37368,11 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -37415,16 +37394,16 @@
         <v>178</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L304" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="M304" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="M304" t="s" s="2">
+      <c r="N304" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="N304" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37452,11 +37431,11 @@
         <v>116</v>
       </c>
       <c r="X304" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="Y304" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="Y304" t="s" s="2">
-        <v>835</v>
-      </c>
       <c r="Z304" t="s" s="2">
         <v>43</v>
       </c>
@@ -37473,7 +37452,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>50</v>
@@ -37502,7 +37481,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37528,16 +37507,16 @@
         <v>178</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L305" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M305" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="M305" t="s" s="2">
+      <c r="N305" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="N305" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>43</v>
@@ -37565,11 +37544,11 @@
         <v>116</v>
       </c>
       <c r="X305" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="Y305" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="Y305" t="s" s="2">
-        <v>695</v>
-      </c>
       <c r="Z305" t="s" s="2">
         <v>43</v>
       </c>
@@ -37586,7 +37565,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37615,7 +37594,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37638,17 +37617,17 @@
         <v>43</v>
       </c>
       <c r="J306" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M306" s="2"/>
       <c r="N306" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>43</v>
@@ -37697,7 +37676,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37726,7 +37705,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37749,17 +37728,17 @@
         <v>43</v>
       </c>
       <c r="J307" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="K307" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="K307" t="s" s="2">
+      <c r="L307" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="L307" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="M307" s="2"/>
       <c r="N307" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37808,7 +37787,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37837,7 +37816,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37860,19 +37839,19 @@
         <v>43</v>
       </c>
       <c r="J308" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="K308" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="K308" t="s" s="2">
+      <c r="L308" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="L308" t="s" s="2">
+      <c r="M308" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="M308" t="s" s="2">
+      <c r="N308" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="N308" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>43</v>
@@ -37921,7 +37900,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37950,7 +37929,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -37973,19 +37952,19 @@
         <v>43</v>
       </c>
       <c r="J309" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K309" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="L309" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="L309" t="s" s="2">
+      <c r="M309" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="M309" t="s" s="2">
+      <c r="N309" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="N309" t="s" s="2">
-        <v>734</v>
       </c>
       <c r="O309" t="s" s="2">
         <v>43</v>
@@ -38034,7 +38013,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -38063,7 +38042,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38089,14 +38068,14 @@
         <v>420</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M310" s="2"/>
       <c r="N310" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O310" t="s" s="2">
         <v>43</v>
@@ -38145,7 +38124,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -38174,7 +38153,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38200,10 +38179,10 @@
         <v>43</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -38254,7 +38233,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -38283,7 +38262,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38309,10 +38288,10 @@
         <v>311</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="M312" s="2"/>
       <c r="N312" s="2"/>
@@ -38363,7 +38342,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38392,7 +38371,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38501,7 +38480,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38612,7 +38591,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38725,11 +38704,11 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -38751,16 +38730,16 @@
         <v>178</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="L316" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="M316" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="M316" t="s" s="2">
+      <c r="N316" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="N316" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38788,11 +38767,11 @@
         <v>116</v>
       </c>
       <c r="X316" t="s" s="2">
+        <v>833</v>
+      </c>
+      <c r="Y316" t="s" s="2">
         <v>834</v>
       </c>
-      <c r="Y316" t="s" s="2">
-        <v>835</v>
-      </c>
       <c r="Z316" t="s" s="2">
         <v>43</v>
       </c>
@@ -38809,7 +38788,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>50</v>
@@ -38838,7 +38817,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38864,16 +38843,16 @@
         <v>178</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="L317" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="M317" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="M317" t="s" s="2">
+      <c r="N317" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="N317" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -38901,11 +38880,11 @@
         <v>116</v>
       </c>
       <c r="X317" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="Y317" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="Y317" t="s" s="2">
-        <v>695</v>
-      </c>
       <c r="Z317" t="s" s="2">
         <v>43</v>
       </c>
@@ -38922,7 +38901,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38951,7 +38930,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38974,17 +38953,17 @@
         <v>43</v>
       </c>
       <c r="J318" t="s" s="2">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M318" s="2"/>
       <c r="N318" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -39033,7 +39012,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -39062,7 +39041,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39085,17 +39064,17 @@
         <v>43</v>
       </c>
       <c r="J319" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="K319" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="K319" t="s" s="2">
+      <c r="L319" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="L319" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="M319" s="2"/>
       <c r="N319" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -39144,7 +39123,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -39173,7 +39152,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39196,19 +39175,19 @@
         <v>43</v>
       </c>
       <c r="J320" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="K320" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="K320" t="s" s="2">
+      <c r="L320" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="L320" t="s" s="2">
+      <c r="M320" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="M320" t="s" s="2">
+      <c r="N320" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="N320" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>43</v>
@@ -39257,7 +39236,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -39286,7 +39265,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39309,19 +39288,19 @@
         <v>43</v>
       </c>
       <c r="J321" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K321" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="L321" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="L321" t="s" s="2">
+      <c r="M321" t="s" s="2">
         <v>732</v>
       </c>
-      <c r="M321" t="s" s="2">
+      <c r="N321" t="s" s="2">
         <v>733</v>
-      </c>
-      <c r="N321" t="s" s="2">
-        <v>734</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>43</v>
@@ -39370,7 +39349,7 @@
         <v>43</v>
       </c>
       <c r="AE321" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AF321" t="s" s="2">
         <v>41</v>
@@ -39399,7 +39378,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39425,14 +39404,14 @@
         <v>420</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="M322" s="2"/>
       <c r="N322" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>43</v>
@@ -39481,7 +39460,7 @@
         <v>43</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AF322" t="s" s="2">
         <v>41</v>
@@ -39510,7 +39489,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39536,10 +39515,10 @@
         <v>43</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -39590,7 +39569,7 @@
         <v>43</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>41</v>
@@ -39619,7 +39598,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39645,14 +39624,14 @@
         <v>43</v>
       </c>
       <c r="K324" t="s" s="2">
+        <v>913</v>
+      </c>
+      <c r="L324" t="s" s="2">
         <v>914</v>
-      </c>
-      <c r="L324" t="s" s="2">
-        <v>915</v>
       </c>
       <c r="M324" s="2"/>
       <c r="N324" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39701,7 +39680,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39730,7 +39709,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39756,16 +39735,16 @@
         <v>311</v>
       </c>
       <c r="K325" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="L325" t="s" s="2">
         <v>918</v>
       </c>
-      <c r="L325" t="s" s="2">
+      <c r="M325" t="s" s="2">
         <v>919</v>
       </c>
-      <c r="M325" t="s" s="2">
+      <c r="N325" t="s" s="2">
         <v>920</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>921</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39802,10 +39781,10 @@
         <v>43</v>
       </c>
       <c r="AA325" t="s" s="2">
+        <v>921</v>
+      </c>
+      <c r="AB325" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="AB325" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="AC325" t="s" s="2">
         <v>43</v>
@@ -39814,7 +39793,7 @@
         <v>76</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39843,7 +39822,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39952,7 +39931,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -40063,7 +40042,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40176,7 +40155,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40202,16 +40181,16 @@
         <v>178</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L329" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="M329" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="N329" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="M329" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="N329" t="s" s="2">
-        <v>929</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -40239,11 +40218,11 @@
         <v>116</v>
       </c>
       <c r="X329" t="s" s="2">
+        <v>770</v>
+      </c>
+      <c r="Y329" t="s" s="2">
         <v>771</v>
       </c>
-      <c r="Y329" t="s" s="2">
-        <v>772</v>
-      </c>
       <c r="Z329" t="s" s="2">
         <v>43</v>
       </c>
@@ -40260,7 +40239,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>50</v>
@@ -40289,7 +40268,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40312,17 +40291,17 @@
         <v>51</v>
       </c>
       <c r="J330" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K330" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="L330" t="s" s="2">
         <v>931</v>
-      </c>
-      <c r="L330" t="s" s="2">
-        <v>932</v>
       </c>
       <c r="M330" s="2"/>
       <c r="N330" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40371,7 +40350,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>50</v>
@@ -40400,10 +40379,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C331" t="s" s="2">
         <v>43</v>
@@ -40428,16 +40407,16 @@
         <v>311</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="L331" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="M331" t="s" s="2">
         <v>919</v>
       </c>
-      <c r="M331" t="s" s="2">
+      <c r="N331" t="s" s="2">
         <v>920</v>
-      </c>
-      <c r="N331" t="s" s="2">
-        <v>921</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40486,7 +40465,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40515,7 +40494,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40624,7 +40603,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40735,7 +40714,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40848,7 +40827,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40874,16 +40853,16 @@
         <v>178</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L335" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="M335" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="N335" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="M335" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="N335" t="s" s="2">
-        <v>929</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40912,7 +40891,7 @@
       </c>
       <c r="X335" s="2"/>
       <c r="Y335" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="Z335" t="s" s="2">
         <v>43</v>
@@ -40930,7 +40909,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>50</v>
@@ -40959,7 +40938,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -40982,17 +40961,17 @@
         <v>51</v>
       </c>
       <c r="J336" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="M336" s="2"/>
       <c r="N336" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -41041,7 +41020,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>50</v>
@@ -41070,10 +41049,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C337" t="s" s="2">
         <v>43</v>
@@ -41098,16 +41077,16 @@
         <v>311</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L337" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="M337" t="s" s="2">
         <v>919</v>
       </c>
-      <c r="M337" t="s" s="2">
+      <c r="N337" t="s" s="2">
         <v>920</v>
-      </c>
-      <c r="N337" t="s" s="2">
-        <v>921</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41156,7 +41135,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -41185,7 +41164,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41294,7 +41273,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41405,7 +41384,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41518,7 +41497,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41544,16 +41523,16 @@
         <v>178</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="L341" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="M341" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="N341" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="M341" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="N341" t="s" s="2">
-        <v>929</v>
       </c>
       <c r="O341" t="s" s="2">
         <v>43</v>
@@ -41582,7 +41561,7 @@
       </c>
       <c r="X341" s="2"/>
       <c r="Y341" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="Z341" t="s" s="2">
         <v>43</v>
@@ -41600,7 +41579,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>50</v>
@@ -41629,7 +41608,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41652,17 +41631,17 @@
         <v>51</v>
       </c>
       <c r="J342" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="M342" s="2"/>
       <c r="N342" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41711,7 +41690,7 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>50</v>
@@ -41740,7 +41719,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41766,14 +41745,14 @@
         <v>311</v>
       </c>
       <c r="K343" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="L343" t="s" s="2">
         <v>939</v>
-      </c>
-      <c r="L343" t="s" s="2">
-        <v>940</v>
       </c>
       <c r="M343" s="2"/>
       <c r="N343" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>43</v>
@@ -41822,7 +41801,7 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AF343" t="s" s="2">
         <v>41</v>
@@ -41851,7 +41830,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41960,7 +41939,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -42071,7 +42050,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42184,7 +42163,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42210,14 +42189,14 @@
         <v>178</v>
       </c>
       <c r="K347" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="L347" t="s" s="2">
         <v>946</v>
-      </c>
-      <c r="L347" t="s" s="2">
-        <v>947</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42246,7 +42225,7 @@
       </c>
       <c r="X347" s="2"/>
       <c r="Y347" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="Z347" t="s" s="2">
         <v>43</v>
@@ -42264,7 +42243,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42293,7 +42272,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42316,19 +42295,19 @@
         <v>43</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K348" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="L348" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="L348" t="s" s="2">
+      <c r="M348" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="M348" t="s" s="2">
+      <c r="N348" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="N348" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42377,7 +42356,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42406,7 +42385,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42432,14 +42411,14 @@
         <v>178</v>
       </c>
       <c r="K349" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="L349" t="s" s="2">
         <v>956</v>
-      </c>
-      <c r="L349" t="s" s="2">
-        <v>957</v>
       </c>
       <c r="M349" s="2"/>
       <c r="N349" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42467,11 +42446,11 @@
         <v>116</v>
       </c>
       <c r="X349" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="Y349" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="Y349" t="s" s="2">
-        <v>960</v>
-      </c>
       <c r="Z349" t="s" s="2">
         <v>43</v>
       </c>
@@ -42488,7 +42467,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42517,7 +42496,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42540,17 +42519,17 @@
         <v>43</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K350" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="L350" t="s" s="2">
         <v>962</v>
-      </c>
-      <c r="L350" t="s" s="2">
-        <v>963</v>
       </c>
       <c r="M350" s="2"/>
       <c r="N350" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42599,7 +42578,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42628,7 +42607,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42651,17 +42630,17 @@
         <v>43</v>
       </c>
       <c r="J351" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K351" t="s" s="2">
+        <v>965</v>
+      </c>
+      <c r="L351" t="s" s="2">
         <v>966</v>
-      </c>
-      <c r="L351" t="s" s="2">
-        <v>967</v>
       </c>
       <c r="M351" s="2"/>
       <c r="N351" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42710,7 +42689,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42739,7 +42718,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42765,16 +42744,16 @@
         <v>159</v>
       </c>
       <c r="K352" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="L352" t="s" s="2">
         <v>970</v>
       </c>
-      <c r="L352" t="s" s="2">
+      <c r="M352" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="M352" t="s" s="2">
+      <c r="N352" t="s" s="2">
         <v>972</v>
-      </c>
-      <c r="N352" t="s" s="2">
-        <v>973</v>
       </c>
       <c r="O352" t="s" s="2">
         <v>43</v>
@@ -42823,7 +42802,7 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
@@ -42852,7 +42831,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42878,16 +42857,16 @@
         <v>178</v>
       </c>
       <c r="K353" t="s" s="2">
+        <v>974</v>
+      </c>
+      <c r="L353" t="s" s="2">
         <v>975</v>
       </c>
-      <c r="L353" t="s" s="2">
+      <c r="M353" t="s" s="2">
         <v>976</v>
       </c>
-      <c r="M353" t="s" s="2">
+      <c r="N353" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="N353" t="s" s="2">
-        <v>978</v>
       </c>
       <c r="O353" t="s" s="2">
         <v>43</v>
@@ -42915,11 +42894,11 @@
         <v>116</v>
       </c>
       <c r="X353" t="s" s="2">
+        <v>978</v>
+      </c>
+      <c r="Y353" t="s" s="2">
         <v>979</v>
       </c>
-      <c r="Y353" t="s" s="2">
-        <v>980</v>
-      </c>
       <c r="Z353" t="s" s="2">
         <v>43</v>
       </c>
@@ -42936,7 +42915,7 @@
         <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AF353" t="s" s="2">
         <v>41</v>
@@ -42965,7 +42944,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -42988,19 +42967,19 @@
         <v>43</v>
       </c>
       <c r="J354" t="s" s="2">
+        <v>981</v>
+      </c>
+      <c r="K354" t="s" s="2">
         <v>982</v>
       </c>
-      <c r="K354" t="s" s="2">
+      <c r="L354" t="s" s="2">
         <v>983</v>
       </c>
-      <c r="L354" t="s" s="2">
+      <c r="M354" t="s" s="2">
         <v>984</v>
       </c>
-      <c r="M354" t="s" s="2">
+      <c r="N354" t="s" s="2">
         <v>985</v>
-      </c>
-      <c r="N354" t="s" s="2">
-        <v>986</v>
       </c>
       <c r="O354" t="s" s="2">
         <v>43</v>
@@ -43049,7 +43028,7 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>41</v>
@@ -43078,7 +43057,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43104,14 +43083,14 @@
         <v>311</v>
       </c>
       <c r="K355" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="L355" t="s" s="2">
         <v>988</v>
-      </c>
-      <c r="L355" t="s" s="2">
-        <v>989</v>
       </c>
       <c r="M355" s="2"/>
       <c r="N355" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>43</v>
@@ -43160,7 +43139,7 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>41</v>
@@ -43189,7 +43168,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43298,7 +43277,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43409,7 +43388,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43522,7 +43501,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43548,14 +43527,14 @@
         <v>420</v>
       </c>
       <c r="K359" t="s" s="2">
+        <v>994</v>
+      </c>
+      <c r="L359" t="s" s="2">
         <v>995</v>
-      </c>
-      <c r="L359" t="s" s="2">
-        <v>996</v>
       </c>
       <c r="M359" s="2"/>
       <c r="N359" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43604,7 +43583,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43633,7 +43612,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43659,14 +43638,14 @@
         <v>126</v>
       </c>
       <c r="K360" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="L360" t="s" s="2">
         <v>999</v>
-      </c>
-      <c r="L360" t="s" s="2">
-        <v>1000</v>
       </c>
       <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43694,11 +43673,11 @@
         <v>172</v>
       </c>
       <c r="X360" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="Y360" t="s" s="2">
         <v>1002</v>
       </c>
-      <c r="Y360" t="s" s="2">
-        <v>1003</v>
-      </c>
       <c r="Z360" t="s" s="2">
         <v>43</v>
       </c>
@@ -43715,7 +43694,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43744,7 +43723,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43770,14 +43749,14 @@
         <v>52</v>
       </c>
       <c r="K361" t="s" s="2">
+        <v>1004</v>
+      </c>
+      <c r="L361" t="s" s="2">
         <v>1005</v>
-      </c>
-      <c r="L361" t="s" s="2">
-        <v>1006</v>
       </c>
       <c r="M361" s="2"/>
       <c r="N361" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="O361" t="s" s="2">
         <v>43</v>
@@ -43826,7 +43805,7 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
@@ -43855,7 +43834,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43881,16 +43860,16 @@
         <v>178</v>
       </c>
       <c r="K362" t="s" s="2">
+        <v>1008</v>
+      </c>
+      <c r="L362" t="s" s="2">
         <v>1009</v>
       </c>
-      <c r="L362" t="s" s="2">
+      <c r="M362" t="s" s="2">
         <v>1010</v>
       </c>
-      <c r="M362" t="s" s="2">
+      <c r="N362" t="s" s="2">
         <v>1011</v>
-      </c>
-      <c r="N362" t="s" s="2">
-        <v>1012</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -43939,7 +43918,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>41</v>
@@ -43968,7 +43947,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -43994,16 +43973,16 @@
         <v>205</v>
       </c>
       <c r="K363" t="s" s="2">
+        <v>1013</v>
+      </c>
+      <c r="L363" t="s" s="2">
         <v>1014</v>
       </c>
-      <c r="L363" t="s" s="2">
+      <c r="M363" t="s" s="2">
         <v>1015</v>
       </c>
-      <c r="M363" t="s" s="2">
+      <c r="N363" t="s" s="2">
         <v>1016</v>
-      </c>
-      <c r="N363" t="s" s="2">
-        <v>1017</v>
       </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
@@ -44052,7 +44031,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -44081,7 +44060,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44107,10 +44086,10 @@
         <v>311</v>
       </c>
       <c r="K364" t="s" s="2">
+        <v>1018</v>
+      </c>
+      <c r="L364" t="s" s="2">
         <v>1019</v>
-      </c>
-      <c r="L364" t="s" s="2">
-        <v>1020</v>
       </c>
       <c r="M364" s="2"/>
       <c r="N364" s="2"/>
@@ -44161,7 +44140,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
@@ -44190,7 +44169,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44299,7 +44278,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44410,7 +44389,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44523,7 +44502,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44549,16 +44528,16 @@
         <v>178</v>
       </c>
       <c r="K368" t="s" s="2">
+        <v>675</v>
+      </c>
+      <c r="L368" t="s" s="2">
         <v>676</v>
       </c>
-      <c r="L368" t="s" s="2">
+      <c r="M368" t="s" s="2">
         <v>677</v>
       </c>
-      <c r="M368" t="s" s="2">
-        <v>678</v>
-      </c>
       <c r="N368" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
@@ -44586,11 +44565,11 @@
         <v>116</v>
       </c>
       <c r="X368" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="Y368" t="s" s="2">
         <v>680</v>
       </c>
-      <c r="Y368" t="s" s="2">
-        <v>681</v>
-      </c>
       <c r="Z368" t="s" s="2">
         <v>43</v>
       </c>
@@ -44607,7 +44586,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>50</v>
@@ -44636,7 +44615,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44662,14 +44641,14 @@
         <v>430</v>
       </c>
       <c r="K369" t="s" s="2">
+        <v>1026</v>
+      </c>
+      <c r="L369" t="s" s="2">
         <v>1027</v>
-      </c>
-      <c r="L369" t="s" s="2">
-        <v>1028</v>
       </c>
       <c r="M369" s="2"/>
       <c r="N369" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
@@ -44718,7 +44697,7 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>41</v>
@@ -44747,7 +44726,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44773,16 +44752,16 @@
         <v>52</v>
       </c>
       <c r="K370" t="s" s="2">
+        <v>1030</v>
+      </c>
+      <c r="L370" t="s" s="2">
         <v>1031</v>
       </c>
-      <c r="L370" t="s" s="2">
+      <c r="M370" t="s" s="2">
         <v>1032</v>
       </c>
-      <c r="M370" t="s" s="2">
+      <c r="N370" t="s" s="2">
         <v>1033</v>
-      </c>
-      <c r="N370" t="s" s="2">
-        <v>1034</v>
       </c>
       <c r="O370" t="s" s="2">
         <v>43</v>
@@ -44831,7 +44810,7 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>41</v>
@@ -44860,7 +44839,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44886,16 +44865,16 @@
         <v>52</v>
       </c>
       <c r="K371" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="L371" t="s" s="2">
         <v>1036</v>
       </c>
-      <c r="L371" t="s" s="2">
+      <c r="M371" t="s" s="2">
         <v>1037</v>
       </c>
-      <c r="M371" t="s" s="2">
+      <c r="N371" t="s" s="2">
         <v>1038</v>
-      </c>
-      <c r="N371" t="s" s="2">
-        <v>1039</v>
       </c>
       <c r="O371" t="s" s="2">
         <v>43</v>
@@ -44944,7 +44923,7 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>41</v>
@@ -44973,7 +44952,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -44999,14 +44978,14 @@
         <v>178</v>
       </c>
       <c r="K372" t="s" s="2">
+        <v>1040</v>
+      </c>
+      <c r="L372" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="L372" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="M372" s="2"/>
       <c r="N372" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O372" t="s" s="2">
         <v>43</v>
@@ -45034,11 +45013,11 @@
         <v>116</v>
       </c>
       <c r="X372" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="Y372" t="s" s="2">
         <v>1044</v>
       </c>
-      <c r="Y372" t="s" s="2">
-        <v>1045</v>
-      </c>
       <c r="Z372" t="s" s="2">
         <v>43</v>
       </c>
@@ -45055,7 +45034,7 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
@@ -45084,7 +45063,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45110,14 +45089,14 @@
         <v>178</v>
       </c>
       <c r="K373" t="s" s="2">
+        <v>1046</v>
+      </c>
+      <c r="L373" t="s" s="2">
         <v>1047</v>
-      </c>
-      <c r="L373" t="s" s="2">
-        <v>1048</v>
       </c>
       <c r="M373" s="2"/>
       <c r="N373" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="O373" t="s" s="2">
         <v>43</v>
@@ -45145,11 +45124,11 @@
         <v>116</v>
       </c>
       <c r="X373" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="Y373" t="s" s="2">
         <v>1050</v>
       </c>
-      <c r="Y373" t="s" s="2">
-        <v>1051</v>
-      </c>
       <c r="Z373" t="s" s="2">
         <v>43</v>
       </c>
@@ -45166,7 +45145,7 @@
         <v>43</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>41</v>
@@ -45195,7 +45174,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45221,14 +45200,14 @@
         <v>178</v>
       </c>
       <c r="K374" t="s" s="2">
+        <v>1052</v>
+      </c>
+      <c r="L374" t="s" s="2">
         <v>1053</v>
-      </c>
-      <c r="L374" t="s" s="2">
-        <v>1054</v>
       </c>
       <c r="M374" s="2"/>
       <c r="N374" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>43</v>
@@ -45256,11 +45235,11 @@
         <v>116</v>
       </c>
       <c r="X374" t="s" s="2">
+        <v>1054</v>
+      </c>
+      <c r="Y374" t="s" s="2">
         <v>1055</v>
       </c>
-      <c r="Y374" t="s" s="2">
-        <v>1056</v>
-      </c>
       <c r="Z374" t="s" s="2">
         <v>43</v>
       </c>
@@ -45277,7 +45256,7 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>41</v>
@@ -45306,7 +45285,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45332,10 +45311,10 @@
         <v>311</v>
       </c>
       <c r="K375" t="s" s="2">
+        <v>1057</v>
+      </c>
+      <c r="L375" t="s" s="2">
         <v>1058</v>
-      </c>
-      <c r="L375" t="s" s="2">
-        <v>1059</v>
       </c>
       <c r="M375" s="2"/>
       <c r="N375" s="2"/>
@@ -45386,7 +45365,7 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
@@ -45415,7 +45394,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45524,7 +45503,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45635,7 +45614,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45748,7 +45727,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45774,16 +45753,16 @@
         <v>178</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L379" t="s" s="2">
+        <v>1063</v>
+      </c>
+      <c r="M379" t="s" s="2">
         <v>1064</v>
       </c>
-      <c r="M379" t="s" s="2">
+      <c r="N379" t="s" s="2">
         <v>1065</v>
-      </c>
-      <c r="N379" t="s" s="2">
-        <v>1066</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45811,11 +45790,11 @@
         <v>116</v>
       </c>
       <c r="X379" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="Y379" t="s" s="2">
         <v>1067</v>
       </c>
-      <c r="Y379" t="s" s="2">
-        <v>1068</v>
-      </c>
       <c r="Z379" t="s" s="2">
         <v>43</v>
       </c>
@@ -45832,7 +45811,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>50</v>
@@ -45861,7 +45840,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -45884,17 +45863,17 @@
         <v>43</v>
       </c>
       <c r="J380" t="s" s="2">
+        <v>1069</v>
+      </c>
+      <c r="K380" t="s" s="2">
         <v>1070</v>
       </c>
-      <c r="K380" t="s" s="2">
+      <c r="L380" t="s" s="2">
         <v>1071</v>
-      </c>
-      <c r="L380" t="s" s="2">
-        <v>1072</v>
       </c>
       <c r="M380" s="2"/>
       <c r="N380" t="s" s="2">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45943,7 +45922,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -45972,7 +45951,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -45995,17 +45974,17 @@
         <v>43</v>
       </c>
       <c r="J381" t="s" s="2">
+        <v>1074</v>
+      </c>
+      <c r="K381" t="s" s="2">
         <v>1075</v>
       </c>
-      <c r="K381" t="s" s="2">
+      <c r="L381" t="s" s="2">
         <v>1076</v>
-      </c>
-      <c r="L381" t="s" s="2">
-        <v>1077</v>
       </c>
       <c r="M381" s="2"/>
       <c r="N381" t="s" s="2">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46054,7 +46033,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -2557,7 +2557,7 @@
     <t>Billing, service, product, or drug code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/FDANDC</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/FDANationalDrugCode</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.item.detail.modifier</t>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -8642,7 +8642,7 @@
         <v>43</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
@@ -22648,7 +22648,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
         <v>558</v>
       </c>
@@ -22664,7 +22664,7 @@
         <v>42</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H172" t="s" s="2">
         <v>43</v>
@@ -23203,7 +23203,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
         <v>569</v>
       </c>
@@ -23219,7 +23219,7 @@
         <v>42</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>43</v>
@@ -23314,7 +23314,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
         <v>573</v>
       </c>
@@ -23330,7 +23330,7 @@
         <v>50</v>
       </c>
       <c r="G178" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H178" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -11371,7 +11371,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>435</v>
       </c>
@@ -11381,13 +11381,13 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>43</v>
@@ -12261,7 +12261,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
         <v>467</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>50</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>43</v>
@@ -12374,7 +12374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
         <v>473</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>50</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>43</v>
@@ -12483,7 +12483,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
         <v>477</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>50</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>43</v>
@@ -13379,7 +13379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
         <v>467</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>50</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>43</v>
@@ -13490,7 +13490,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
         <v>473</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>50</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>43</v>
@@ -13599,7 +13599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
         <v>477</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>50</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>43</v>
@@ -14495,7 +14495,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
         <v>467</v>
       </c>
@@ -14511,7 +14511,7 @@
         <v>50</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>43</v>
@@ -14606,7 +14606,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
         <v>473</v>
       </c>
@@ -14622,7 +14622,7 @@
         <v>50</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>43</v>
@@ -14715,7 +14715,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
         <v>477</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>50</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>43</v>
@@ -15611,7 +15611,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
         <v>467</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>50</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>43</v>
@@ -15722,7 +15722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
         <v>473</v>
       </c>
@@ -15738,7 +15738,7 @@
         <v>50</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>43</v>
@@ -15831,7 +15831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
         <v>477</v>
       </c>
@@ -15847,7 +15847,7 @@
         <v>50</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>43</v>
@@ -16727,7 +16727,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
         <v>467</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>50</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>43</v>
@@ -16840,7 +16840,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
         <v>473</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>50</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>43</v>
@@ -16949,7 +16949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
         <v>477</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>50</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>43</v>
@@ -17845,7 +17845,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
         <v>467</v>
       </c>
@@ -17861,7 +17861,7 @@
         <v>50</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>43</v>
@@ -17956,7 +17956,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
         <v>473</v>
       </c>
@@ -17972,7 +17972,7 @@
         <v>50</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>43</v>
@@ -18065,7 +18065,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
         <v>477</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>50</v>
       </c>
       <c r="G131" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H131" t="s" s="2">
         <v>43</v>
@@ -18961,7 +18961,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
         <v>467</v>
       </c>
@@ -18977,7 +18977,7 @@
         <v>50</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>43</v>
@@ -19074,7 +19074,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
         <v>473</v>
       </c>
@@ -19090,7 +19090,7 @@
         <v>50</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>43</v>
@@ -19183,7 +19183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
         <v>477</v>
       </c>
@@ -19199,7 +19199,7 @@
         <v>50</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>43</v>
@@ -20079,7 +20079,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
         <v>467</v>
       </c>
@@ -20095,7 +20095,7 @@
         <v>50</v>
       </c>
       <c r="G149" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H149" t="s" s="2">
         <v>43</v>
@@ -20192,7 +20192,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
         <v>473</v>
       </c>
@@ -20208,7 +20208,7 @@
         <v>50</v>
       </c>
       <c r="G150" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H150" t="s" s="2">
         <v>43</v>
@@ -20301,7 +20301,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
         <v>477</v>
       </c>
@@ -20317,7 +20317,7 @@
         <v>50</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>43</v>
@@ -21197,7 +21197,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
         <v>467</v>
       </c>
@@ -21213,7 +21213,7 @@
         <v>50</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>43</v>
@@ -21308,7 +21308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
         <v>473</v>
       </c>
@@ -21324,7 +21324,7 @@
         <v>50</v>
       </c>
       <c r="G160" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H160" t="s" s="2">
         <v>43</v>
@@ -21417,7 +21417,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
         <v>477</v>
       </c>
@@ -21433,7 +21433,7 @@
         <v>50</v>
       </c>
       <c r="G161" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H161" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -11371,7 +11371,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>435</v>
       </c>
@@ -11381,13 +11381,13 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>43</v>
@@ -12150,7 +12150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>461</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>50</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13437" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13437" uniqueCount="1079">
   <si>
     <t>Path</t>
   </si>
@@ -1607,6 +1607,10 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
     <t>dawcode</t>
   </si>
   <si>
@@ -1638,6 +1642,10 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
     <t>dayssupply</t>
   </si>
   <si>
@@ -1990,10 +1998,6 @@
   </si>
   <si>
     <t>ExplanationOfBenefit.accident.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
   </si>
   <si>
     <t>When the incident occurred</t>
@@ -13379,7 +13383,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>467</v>
       </c>
@@ -13395,7 +13399,7 @@
         <v>50</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>43</v>
@@ -14495,7 +14499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>467</v>
       </c>
@@ -14505,13 +14509,13 @@
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>43</v>
@@ -15611,7 +15615,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>467</v>
       </c>
@@ -15621,13 +15625,13 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F109" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G109" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H109" t="s" s="2">
         <v>43</v>
@@ -16949,7 +16953,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
         <v>477</v>
       </c>
@@ -16959,13 +16963,13 @@
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F121" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G121" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H121" t="s" s="2">
         <v>43</v>
@@ -16974,7 +16978,7 @@
         <v>43</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>479</v>
@@ -17180,7 +17184,7 @@
         <v>447</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>43</v>
@@ -17205,7 +17209,7 @@
         <v>311</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L123" t="s" s="2">
         <v>449</v>
@@ -17781,7 +17785,7 @@
         <v>43</v>
       </c>
       <c r="R128" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="S128" t="s" s="2">
         <v>43</v>
@@ -17845,7 +17849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" hidden="true">
+    <row r="129">
       <c r="A129" t="s" s="2">
         <v>467</v>
       </c>
@@ -17855,13 +17859,13 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F129" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>43</v>
@@ -17911,7 +17915,7 @@
       </c>
       <c r="X129" s="2"/>
       <c r="Y129" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>43</v>
@@ -18296,7 +18300,7 @@
         <v>447</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C133" t="s" s="2">
         <v>43</v>
@@ -18321,7 +18325,7 @@
         <v>311</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L133" t="s" s="2">
         <v>449</v>
@@ -18897,7 +18901,7 @@
         <v>43</v>
       </c>
       <c r="R138" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="S138" t="s" s="2">
         <v>43</v>
@@ -19074,7 +19078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>473</v>
       </c>
@@ -19084,13 +19088,13 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F140" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>43</v>
@@ -19099,7 +19103,7 @@
         <v>43</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>474</v>
+        <v>513</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>475</v>
@@ -19414,7 +19418,7 @@
         <v>447</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>43</v>
@@ -19439,7 +19443,7 @@
         <v>311</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L143" t="s" s="2">
         <v>449</v>
@@ -20015,7 +20019,7 @@
         <v>43</v>
       </c>
       <c r="R148" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="S148" t="s" s="2">
         <v>43</v>
@@ -20301,7 +20305,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" hidden="true">
+    <row r="151">
       <c r="A151" t="s" s="2">
         <v>477</v>
       </c>
@@ -20311,13 +20315,13 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F151" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G151" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H151" t="s" s="2">
         <v>43</v>
@@ -20326,7 +20330,7 @@
         <v>43</v>
       </c>
       <c r="J151" t="s" s="2">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="K151" t="s" s="2">
         <v>479</v>
@@ -20532,7 +20536,7 @@
         <v>447</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>43</v>
@@ -20557,7 +20561,7 @@
         <v>311</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="L153" t="s" s="2">
         <v>449</v>
@@ -21133,7 +21137,7 @@
         <v>43</v>
       </c>
       <c r="R158" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="S158" t="s" s="2">
         <v>43</v>
@@ -21197,7 +21201,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" hidden="true">
+    <row r="159">
       <c r="A159" t="s" s="2">
         <v>467</v>
       </c>
@@ -21207,13 +21211,13 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F159" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>43</v>
@@ -21263,7 +21267,7 @@
       </c>
       <c r="X159" s="2"/>
       <c r="Y159" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="Z159" t="s" s="2">
         <v>43</v>
@@ -21645,7 +21649,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21671,14 +21675,14 @@
         <v>311</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>43</v>
@@ -21727,7 +21731,7 @@
         <v>43</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>41</v>
@@ -21756,7 +21760,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21865,7 +21869,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21976,7 +21980,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -22089,7 +22093,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -22115,16 +22119,16 @@
         <v>420</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>43</v>
@@ -22173,7 +22177,7 @@
         <v>43</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>50</v>
@@ -22202,7 +22206,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22225,17 +22229,17 @@
         <v>43</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>43</v>
@@ -22263,10 +22267,10 @@
         <v>116</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>43</v>
@@ -22284,7 +22288,7 @@
         <v>43</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>50</v>
@@ -22313,7 +22317,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22339,16 +22343,16 @@
         <v>178</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>43</v>
@@ -22376,10 +22380,10 @@
         <v>116</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="Z169" t="s" s="2">
         <v>43</v>
@@ -22397,7 +22401,7 @@
         <v>43</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>41</v>
@@ -22426,7 +22430,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22452,14 +22456,14 @@
         <v>178</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22487,10 +22491,10 @@
         <v>116</v>
       </c>
       <c r="X170" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="Z170" t="s" s="2">
         <v>43</v>
@@ -22508,7 +22512,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>41</v>
@@ -22537,7 +22541,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22563,16 +22567,16 @@
         <v>178</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22600,10 +22604,10 @@
         <v>116</v>
       </c>
       <c r="X171" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>43</v>
@@ -22621,7 +22625,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -22650,7 +22654,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22676,14 +22680,14 @@
         <v>311</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="M172" s="2"/>
       <c r="N172" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22732,7 +22736,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
@@ -22761,7 +22765,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22870,7 +22874,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22981,7 +22985,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -23094,7 +23098,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -23120,14 +23124,14 @@
         <v>420</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>43</v>
@@ -23176,7 +23180,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>50</v>
@@ -23205,7 +23209,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23231,14 +23235,14 @@
         <v>178</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>43</v>
@@ -23266,28 +23270,28 @@
         <v>116</v>
       </c>
       <c r="X177" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="Y177" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="Z177" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA177" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB177" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC177" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD177" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE177" t="s" s="2">
         <v>571</v>
-      </c>
-      <c r="Y177" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="Z177" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA177" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB177" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC177" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD177" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE177" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -23316,7 +23320,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23342,14 +23346,14 @@
         <v>265</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M178" s="2"/>
       <c r="N178" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>43</v>
@@ -23398,7 +23402,7 @@
         <v>43</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>
@@ -23427,7 +23431,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23450,17 +23454,17 @@
         <v>43</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M179" s="2"/>
       <c r="N179" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>43</v>
@@ -23488,10 +23492,10 @@
         <v>116</v>
       </c>
       <c r="X179" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="Y179" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="Z179" t="s" s="2">
         <v>43</v>
@@ -23509,7 +23513,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>50</v>
@@ -23538,7 +23542,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23561,17 +23565,17 @@
         <v>43</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23620,7 +23624,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23649,7 +23653,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23675,14 +23679,14 @@
         <v>420</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23731,7 +23735,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23760,7 +23764,7 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23786,16 +23790,16 @@
         <v>311</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="O182" t="s" s="2">
         <v>43</v>
@@ -23844,7 +23848,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>50</v>
@@ -23856,7 +23860,7 @@
         <v>43</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>43</v>
@@ -23865,7 +23869,7 @@
         <v>43</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>43</v>
@@ -23873,7 +23877,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23982,7 +23986,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -24093,7 +24097,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -24206,7 +24210,7 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24232,16 +24236,16 @@
         <v>430</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="O186" t="s" s="2">
         <v>43</v>
@@ -24290,7 +24294,7 @@
         <v>43</v>
       </c>
       <c r="AE186" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="AF186" t="s" s="2">
         <v>50</v>
@@ -24319,7 +24323,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24342,17 +24346,17 @@
         <v>51</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K187" t="s" s="2">
         <v>253</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24401,7 +24405,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>50</v>
@@ -24430,7 +24434,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24456,16 +24460,16 @@
         <v>52</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24514,7 +24518,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24543,7 +24547,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24569,14 +24573,14 @@
         <v>311</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24625,7 +24629,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24654,7 +24658,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24763,7 +24767,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
@@ -24874,7 +24878,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24987,7 +24991,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -25010,19 +25014,19 @@
         <v>43</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>625</v>
+        <v>513</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -25071,7 +25075,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -25100,7 +25104,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -25126,14 +25130,14 @@
         <v>178</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -25161,10 +25165,10 @@
         <v>108</v>
       </c>
       <c r="X194" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Z194" t="s" s="2">
         <v>43</v>
@@ -25182,7 +25186,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>41</v>
@@ -25211,7 +25215,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25234,17 +25238,17 @@
         <v>43</v>
       </c>
       <c r="J195" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25293,7 +25297,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -25322,7 +25326,7 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25348,14 +25352,14 @@
         <v>311</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25404,7 +25408,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25433,7 +25437,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25542,7 +25546,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25653,7 +25657,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25766,7 +25770,7 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25792,14 +25796,14 @@
         <v>420</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="M200" s="2"/>
       <c r="N200" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25848,7 +25852,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>50</v>
@@ -25877,7 +25881,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25903,14 +25907,14 @@
         <v>420</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25959,7 +25963,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -25988,7 +25992,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -26014,14 +26018,14 @@
         <v>420</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -26070,7 +26074,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -26099,7 +26103,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -26125,14 +26129,14 @@
         <v>420</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="O203" t="s" s="2">
         <v>43</v>
@@ -26181,7 +26185,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26210,7 +26214,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26236,14 +26240,14 @@
         <v>420</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="O204" t="s" s="2">
         <v>43</v>
@@ -26292,7 +26296,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26321,7 +26325,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26347,14 +26351,14 @@
         <v>178</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M205" s="2"/>
       <c r="N205" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="O205" t="s" s="2">
         <v>43</v>
@@ -26382,10 +26386,10 @@
         <v>116</v>
       </c>
       <c r="X205" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Z205" t="s" s="2">
         <v>43</v>
@@ -26403,7 +26407,7 @@
         <v>43</v>
       </c>
       <c r="AE205" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AF205" t="s" s="2">
         <v>41</v>
@@ -26432,7 +26436,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26458,16 +26462,16 @@
         <v>178</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="O206" t="s" s="2">
         <v>43</v>
@@ -26495,10 +26499,10 @@
         <v>116</v>
       </c>
       <c r="X206" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Y206" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="Z206" t="s" s="2">
         <v>43</v>
@@ -26516,7 +26520,7 @@
         <v>43</v>
       </c>
       <c r="AE206" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AF206" t="s" s="2">
         <v>41</v>
@@ -26545,11 +26549,11 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" t="s" s="2">
@@ -26571,16 +26575,16 @@
         <v>178</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O207" t="s" s="2">
         <v>43</v>
@@ -26609,7 +26613,7 @@
       </c>
       <c r="X207" s="2"/>
       <c r="Y207" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="Z207" t="s" s="2">
         <v>43</v>
@@ -26627,7 +26631,7 @@
         <v>43</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="AF207" t="s" s="2">
         <v>50</v>
@@ -26656,7 +26660,7 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
@@ -26682,16 +26686,16 @@
         <v>178</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26719,10 +26723,10 @@
         <v>116</v>
       </c>
       <c r="X208" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Z208" t="s" s="2">
         <v>43</v>
@@ -26740,7 +26744,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>41</v>
@@ -26769,7 +26773,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26795,16 +26799,16 @@
         <v>178</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26832,10 +26836,10 @@
         <v>116</v>
       </c>
       <c r="X209" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Y209" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Z209" t="s" s="2">
         <v>43</v>
@@ -26853,7 +26857,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26882,7 +26886,7 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26908,14 +26912,14 @@
         <v>474</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26964,7 +26968,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -26993,7 +26997,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -27016,17 +27020,17 @@
         <v>43</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -27054,10 +27058,10 @@
         <v>116</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Z211" t="s" s="2">
         <v>43</v>
@@ -27075,7 +27079,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -27104,7 +27108,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -27127,17 +27131,17 @@
         <v>43</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M212" s="2"/>
       <c r="N212" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -27186,7 +27190,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27215,7 +27219,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27238,17 +27242,17 @@
         <v>43</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M213" s="2"/>
       <c r="N213" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27297,7 +27301,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27326,7 +27330,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27349,19 +27353,19 @@
         <v>43</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27410,7 +27414,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27439,7 +27443,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27462,19 +27466,19 @@
         <v>43</v>
       </c>
       <c r="J215" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N215" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O215" t="s" s="2">
         <v>43</v>
@@ -27523,7 +27527,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27552,7 +27556,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27575,17 +27579,17 @@
         <v>43</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="O216" t="s" s="2">
         <v>43</v>
@@ -27634,7 +27638,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27663,7 +27667,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27689,16 +27693,16 @@
         <v>178</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N217" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O217" t="s" s="2">
         <v>43</v>
@@ -27726,10 +27730,10 @@
         <v>116</v>
       </c>
       <c r="X217" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Y217" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Z217" t="s" s="2">
         <v>43</v>
@@ -27747,7 +27751,7 @@
         <v>43</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AF217" t="s" s="2">
         <v>41</v>
@@ -27776,7 +27780,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27802,14 +27806,14 @@
         <v>178</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="M218" s="2"/>
       <c r="N218" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O218" t="s" s="2">
         <v>43</v>
@@ -27837,10 +27841,10 @@
         <v>116</v>
       </c>
       <c r="X218" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Y218" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Z218" t="s" s="2">
         <v>43</v>
@@ -27858,7 +27862,7 @@
         <v>43</v>
       </c>
       <c r="AE218" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AF218" t="s" s="2">
         <v>41</v>
@@ -27887,7 +27891,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27910,17 +27914,17 @@
         <v>43</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M219" s="2"/>
       <c r="N219" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O219" t="s" s="2">
         <v>43</v>
@@ -27969,7 +27973,7 @@
         <v>43</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="AF219" t="s" s="2">
         <v>41</v>
@@ -27998,7 +28002,7 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
@@ -28024,14 +28028,14 @@
         <v>420</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M220" s="2"/>
       <c r="N220" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -28080,7 +28084,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>41</v>
@@ -28109,7 +28113,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -28135,14 +28139,14 @@
         <v>311</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M221" s="2"/>
       <c r="N221" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -28182,16 +28186,16 @@
         <v>452</v>
       </c>
       <c r="AB221" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AC221" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD221" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28220,7 +28224,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28329,7 +28333,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28440,7 +28444,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28553,7 +28557,7 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28579,16 +28583,16 @@
         <v>178</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28616,10 +28620,10 @@
         <v>116</v>
       </c>
       <c r="X225" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="Y225" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="Z225" t="s" s="2">
         <v>43</v>
@@ -28637,7 +28641,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>50</v>
@@ -28666,7 +28670,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28692,16 +28696,16 @@
         <v>178</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N226" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28729,10 +28733,10 @@
         <v>116</v>
       </c>
       <c r="X226" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Y226" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Z226" t="s" s="2">
         <v>43</v>
@@ -28750,7 +28754,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28779,7 +28783,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28802,19 +28806,19 @@
         <v>43</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O227" t="s" s="2">
         <v>43</v>
@@ -28863,7 +28867,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28892,7 +28896,7 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28915,19 +28919,19 @@
         <v>43</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28976,7 +28980,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -29005,10 +29009,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C229" t="s" s="2">
         <v>43</v>
@@ -29033,14 +29037,14 @@
         <v>311</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M229" s="2"/>
       <c r="N229" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -29089,7 +29093,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -29118,7 +29122,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29227,7 +29231,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29338,7 +29342,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29451,7 +29455,7 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29477,16 +29481,16 @@
         <v>178</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29515,7 +29519,7 @@
       </c>
       <c r="X233" s="2"/>
       <c r="Y233" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="Z233" t="s" s="2">
         <v>43</v>
@@ -29533,7 +29537,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>50</v>
@@ -29562,7 +29566,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29588,16 +29592,16 @@
         <v>178</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N234" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29625,10 +29629,10 @@
         <v>116</v>
       </c>
       <c r="X234" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="Y234" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="Z234" t="s" s="2">
         <v>43</v>
@@ -29646,7 +29650,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>41</v>
@@ -29675,7 +29679,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29698,19 +29702,19 @@
         <v>43</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29759,7 +29763,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29788,7 +29792,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29811,19 +29815,19 @@
         <v>43</v>
       </c>
       <c r="J236" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N236" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O236" t="s" s="2">
         <v>43</v>
@@ -29872,7 +29876,7 @@
         <v>43</v>
       </c>
       <c r="AE236" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF236" t="s" s="2">
         <v>41</v>
@@ -29901,10 +29905,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C237" t="s" s="2">
         <v>43</v>
@@ -29929,14 +29933,14 @@
         <v>311</v>
       </c>
       <c r="K237" t="s" s="2">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="M237" s="2"/>
       <c r="N237" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O237" t="s" s="2">
         <v>43</v>
@@ -29985,7 +29989,7 @@
         <v>43</v>
       </c>
       <c r="AE237" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AF237" t="s" s="2">
         <v>41</v>
@@ -30014,7 +30018,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -30123,7 +30127,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -30234,7 +30238,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30347,7 +30351,7 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30373,16 +30377,16 @@
         <v>178</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N241" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30392,7 +30396,7 @@
         <v>43</v>
       </c>
       <c r="R241" t="s" s="2">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="S241" t="s" s="2">
         <v>43</v>
@@ -30410,10 +30414,10 @@
         <v>116</v>
       </c>
       <c r="X241" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="Y241" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="Z241" t="s" s="2">
         <v>43</v>
@@ -30431,7 +30435,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>50</v>
@@ -30460,7 +30464,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30486,16 +30490,16 @@
         <v>178</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30524,7 +30528,7 @@
       </c>
       <c r="X242" s="2"/>
       <c r="Y242" t="s" s="2">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Z242" t="s" s="2">
         <v>43</v>
@@ -30542,7 +30546,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30571,7 +30575,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30594,19 +30598,19 @@
         <v>43</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30655,7 +30659,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30684,7 +30688,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30707,19 +30711,19 @@
         <v>43</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30768,7 +30772,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30797,7 +30801,7 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30823,10 +30827,10 @@
         <v>311</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="M245" s="2"/>
       <c r="N245" s="2"/>
@@ -30877,7 +30881,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30906,7 +30910,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -31015,7 +31019,7 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -31126,7 +31130,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31239,7 +31243,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31265,14 +31269,14 @@
         <v>420</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M249" s="2"/>
       <c r="N249" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O249" t="s" s="2">
         <v>43</v>
@@ -31321,7 +31325,7 @@
         <v>43</v>
       </c>
       <c r="AE249" t="s" s="2">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AF249" t="s" s="2">
         <v>50</v>
@@ -31350,7 +31354,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31376,14 +31380,14 @@
         <v>178</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M250" s="2"/>
       <c r="N250" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="O250" t="s" s="2">
         <v>43</v>
@@ -31411,10 +31415,10 @@
         <v>116</v>
       </c>
       <c r="X250" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Z250" t="s" s="2">
         <v>43</v>
@@ -31432,7 +31436,7 @@
         <v>43</v>
       </c>
       <c r="AE250" t="s" s="2">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="AF250" t="s" s="2">
         <v>41</v>
@@ -31461,7 +31465,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31487,16 +31491,16 @@
         <v>178</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31524,10 +31528,10 @@
         <v>116</v>
       </c>
       <c r="X251" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="Z251" t="s" s="2">
         <v>43</v>
@@ -31545,7 +31549,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31574,11 +31578,11 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
@@ -31600,16 +31604,16 @@
         <v>178</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N252" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31638,7 +31642,7 @@
       </c>
       <c r="X252" s="2"/>
       <c r="Y252" t="s" s="2">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
@@ -31656,7 +31660,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>50</v>
@@ -31685,7 +31689,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31711,16 +31715,16 @@
         <v>178</v>
       </c>
       <c r="K253" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M253" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N253" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31748,10 +31752,10 @@
         <v>116</v>
       </c>
       <c r="X253" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y253" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Z253" t="s" s="2">
         <v>43</v>
@@ -31769,7 +31773,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31798,7 +31802,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31824,16 +31828,16 @@
         <v>178</v>
       </c>
       <c r="K254" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L254" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M254" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N254" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31861,10 +31865,10 @@
         <v>116</v>
       </c>
       <c r="X254" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Y254" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Z254" t="s" s="2">
         <v>43</v>
@@ -31882,7 +31886,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31911,7 +31915,7 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31934,17 +31938,17 @@
         <v>43</v>
       </c>
       <c r="J255" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K255" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M255" s="2"/>
       <c r="N255" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -31993,7 +31997,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -32022,7 +32026,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -32045,17 +32049,17 @@
         <v>43</v>
       </c>
       <c r="J256" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K256" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M256" s="2"/>
       <c r="N256" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O256" t="s" s="2">
         <v>43</v>
@@ -32104,7 +32108,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -32133,7 +32137,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32156,19 +32160,19 @@
         <v>43</v>
       </c>
       <c r="J257" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K257" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N257" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O257" t="s" s="2">
         <v>43</v>
@@ -32217,7 +32221,7 @@
         <v>43</v>
       </c>
       <c r="AE257" t="s" s="2">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AF257" t="s" s="2">
         <v>41</v>
@@ -32246,7 +32250,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32269,19 +32273,19 @@
         <v>43</v>
       </c>
       <c r="J258" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K258" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N258" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O258" t="s" s="2">
         <v>43</v>
@@ -32330,7 +32334,7 @@
         <v>43</v>
       </c>
       <c r="AE258" t="s" s="2">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AF258" t="s" s="2">
         <v>41</v>
@@ -32359,7 +32363,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32382,17 +32386,17 @@
         <v>43</v>
       </c>
       <c r="J259" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="K259" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M259" s="2"/>
       <c r="N259" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="O259" t="s" s="2">
         <v>43</v>
@@ -32441,7 +32445,7 @@
         <v>43</v>
       </c>
       <c r="AE259" t="s" s="2">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="AF259" t="s" s="2">
         <v>41</v>
@@ -32470,7 +32474,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32496,14 +32500,14 @@
         <v>420</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M260" s="2"/>
       <c r="N260" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32552,7 +32556,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>41</v>
@@ -32581,7 +32585,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32607,10 +32611,10 @@
         <v>43</v>
       </c>
       <c r="K261" t="s" s="2">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" s="2"/>
@@ -32661,7 +32665,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32690,7 +32694,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32716,10 +32720,10 @@
         <v>311</v>
       </c>
       <c r="K262" t="s" s="2">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="L262" t="s" s="2">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M262" s="2"/>
       <c r="N262" s="2"/>
@@ -32770,7 +32774,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32799,7 +32803,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32908,7 +32912,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -33019,7 +33023,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -33132,7 +33136,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -33158,14 +33162,14 @@
         <v>420</v>
       </c>
       <c r="K266" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="L266" t="s" s="2">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M266" s="2"/>
       <c r="N266" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -33214,7 +33218,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>50</v>
@@ -33243,7 +33247,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33269,14 +33273,14 @@
         <v>178</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="O267" t="s" s="2">
         <v>43</v>
@@ -33304,10 +33308,10 @@
         <v>116</v>
       </c>
       <c r="X267" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="Y267" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="Z267" t="s" s="2">
         <v>43</v>
@@ -33325,7 +33329,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33354,7 +33358,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33380,16 +33384,16 @@
         <v>178</v>
       </c>
       <c r="K268" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N268" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="O268" t="s" s="2">
         <v>43</v>
@@ -33417,10 +33421,10 @@
         <v>116</v>
       </c>
       <c r="X268" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Y268" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="Z268" t="s" s="2">
         <v>43</v>
@@ -33438,7 +33442,7 @@
         <v>43</v>
       </c>
       <c r="AE268" t="s" s="2">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="AF268" t="s" s="2">
         <v>41</v>
@@ -33467,11 +33471,11 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -33493,16 +33497,16 @@
         <v>178</v>
       </c>
       <c r="K269" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L269" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M269" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N269" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O269" t="s" s="2">
         <v>43</v>
@@ -33530,28 +33534,28 @@
         <v>116</v>
       </c>
       <c r="X269" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="Y269" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="Z269" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA269" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB269" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC269" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD269" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE269" t="s" s="2">
         <v>833</v>
-      </c>
-      <c r="Y269" t="s" s="2">
-        <v>834</v>
-      </c>
-      <c r="Z269" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA269" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB269" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC269" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD269" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE269" t="s" s="2">
-        <v>832</v>
       </c>
       <c r="AF269" t="s" s="2">
         <v>50</v>
@@ -33580,7 +33584,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33606,16 +33610,16 @@
         <v>178</v>
       </c>
       <c r="K270" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L270" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M270" t="s" s="2">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="N270" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O270" t="s" s="2">
         <v>43</v>
@@ -33643,10 +33647,10 @@
         <v>116</v>
       </c>
       <c r="X270" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y270" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Z270" t="s" s="2">
         <v>43</v>
@@ -33664,7 +33668,7 @@
         <v>43</v>
       </c>
       <c r="AE270" t="s" s="2">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="AF270" t="s" s="2">
         <v>41</v>
@@ -33693,7 +33697,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33719,16 +33723,16 @@
         <v>178</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L271" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33756,10 +33760,10 @@
         <v>116</v>
       </c>
       <c r="X271" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Y271" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
@@ -33777,7 +33781,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>41</v>
@@ -33806,7 +33810,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33829,17 +33833,17 @@
         <v>43</v>
       </c>
       <c r="J272" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K272" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M272" s="2"/>
       <c r="N272" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33888,7 +33892,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33917,7 +33921,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33940,17 +33944,17 @@
         <v>43</v>
       </c>
       <c r="J273" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K273" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -33999,7 +34003,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>
@@ -34028,7 +34032,7 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s" s="2">
@@ -34051,19 +34055,19 @@
         <v>43</v>
       </c>
       <c r="J274" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K274" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L274" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M274" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N274" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O274" t="s" s="2">
         <v>43</v>
@@ -34112,7 +34116,7 @@
         <v>43</v>
       </c>
       <c r="AE274" t="s" s="2">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="AF274" t="s" s="2">
         <v>41</v>
@@ -34141,7 +34145,7 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" t="s" s="2">
@@ -34164,19 +34168,19 @@
         <v>43</v>
       </c>
       <c r="J275" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K275" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L275" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M275" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N275" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O275" t="s" s="2">
         <v>43</v>
@@ -34225,7 +34229,7 @@
         <v>43</v>
       </c>
       <c r="AE275" t="s" s="2">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="AF275" t="s" s="2">
         <v>41</v>
@@ -34254,7 +34258,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" t="s" s="2">
@@ -34277,17 +34281,17 @@
         <v>43</v>
       </c>
       <c r="J276" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="K276" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L276" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M276" s="2"/>
       <c r="N276" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="O276" t="s" s="2">
         <v>43</v>
@@ -34336,7 +34340,7 @@
         <v>43</v>
       </c>
       <c r="AE276" t="s" s="2">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="AF276" t="s" s="2">
         <v>41</v>
@@ -34365,7 +34369,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" t="s" s="2">
@@ -34391,14 +34395,14 @@
         <v>420</v>
       </c>
       <c r="K277" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M277" s="2"/>
       <c r="N277" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O277" t="s" s="2">
         <v>43</v>
@@ -34447,7 +34451,7 @@
         <v>43</v>
       </c>
       <c r="AE277" t="s" s="2">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="AF277" t="s" s="2">
         <v>41</v>
@@ -34476,7 +34480,7 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s" s="2">
@@ -34502,10 +34506,10 @@
         <v>43</v>
       </c>
       <c r="K278" t="s" s="2">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="L278" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M278" s="2"/>
       <c r="N278" s="2"/>
@@ -34556,7 +34560,7 @@
         <v>43</v>
       </c>
       <c r="AE278" t="s" s="2">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="AF278" t="s" s="2">
         <v>41</v>
@@ -34585,7 +34589,7 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s" s="2">
@@ -34611,14 +34615,14 @@
         <v>311</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="M279" s="2"/>
       <c r="N279" t="s" s="2">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="O279" t="s" s="2">
         <v>43</v>
@@ -34667,7 +34671,7 @@
         <v>43</v>
       </c>
       <c r="AE279" t="s" s="2">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="AF279" t="s" s="2">
         <v>41</v>
@@ -34696,7 +34700,7 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s" s="2">
@@ -34805,7 +34809,7 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s" s="2">
@@ -34916,7 +34920,7 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s" s="2">
@@ -35029,7 +35033,7 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s" s="2">
@@ -35055,14 +35059,14 @@
         <v>420</v>
       </c>
       <c r="K283" t="s" s="2">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="M283" s="2"/>
       <c r="N283" t="s" s="2">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="O283" t="s" s="2">
         <v>43</v>
@@ -35111,7 +35115,7 @@
         <v>43</v>
       </c>
       <c r="AE283" t="s" s="2">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AF283" t="s" s="2">
         <v>41</v>
@@ -35140,7 +35144,7 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s" s="2">
@@ -35166,14 +35170,14 @@
         <v>420</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="M284" s="2"/>
       <c r="N284" t="s" s="2">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="O284" t="s" s="2">
         <v>43</v>
@@ -35222,7 +35226,7 @@
         <v>43</v>
       </c>
       <c r="AE284" t="s" s="2">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="AF284" t="s" s="2">
         <v>41</v>
@@ -35251,7 +35255,7 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s" s="2">
@@ -35277,14 +35281,14 @@
         <v>420</v>
       </c>
       <c r="K285" t="s" s="2">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="M285" s="2"/>
       <c r="N285" t="s" s="2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="O285" t="s" s="2">
         <v>43</v>
@@ -35333,7 +35337,7 @@
         <v>43</v>
       </c>
       <c r="AE285" t="s" s="2">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="AF285" t="s" s="2">
         <v>41</v>
@@ -35362,7 +35366,7 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s" s="2">
@@ -35385,17 +35389,17 @@
         <v>43</v>
       </c>
       <c r="J286" t="s" s="2">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="K286" t="s" s="2">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="L286" t="s" s="2">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="M286" s="2"/>
       <c r="N286" t="s" s="2">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="O286" t="s" s="2">
         <v>43</v>
@@ -35444,7 +35448,7 @@
         <v>43</v>
       </c>
       <c r="AE286" t="s" s="2">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="AF286" t="s" s="2">
         <v>41</v>
@@ -35473,11 +35477,11 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -35499,16 +35503,16 @@
         <v>178</v>
       </c>
       <c r="K287" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L287" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M287" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N287" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O287" t="s" s="2">
         <v>43</v>
@@ -35536,10 +35540,10 @@
         <v>116</v>
       </c>
       <c r="X287" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="Y287" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Z287" t="s" s="2">
         <v>43</v>
@@ -35557,7 +35561,7 @@
         <v>43</v>
       </c>
       <c r="AE287" t="s" s="2">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="AF287" t="s" s="2">
         <v>50</v>
@@ -35586,7 +35590,7 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s" s="2">
@@ -35612,16 +35616,16 @@
         <v>178</v>
       </c>
       <c r="K288" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M288" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N288" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O288" t="s" s="2">
         <v>43</v>
@@ -35649,10 +35653,10 @@
         <v>116</v>
       </c>
       <c r="X288" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y288" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Z288" t="s" s="2">
         <v>43</v>
@@ -35670,7 +35674,7 @@
         <v>43</v>
       </c>
       <c r="AE288" t="s" s="2">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="AF288" t="s" s="2">
         <v>41</v>
@@ -35699,7 +35703,7 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s" s="2">
@@ -35725,16 +35729,16 @@
         <v>178</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="O289" t="s" s="2">
         <v>43</v>
@@ -35762,10 +35766,10 @@
         <v>116</v>
       </c>
       <c r="X289" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="Y289" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="Z289" t="s" s="2">
         <v>43</v>
@@ -35783,7 +35787,7 @@
         <v>43</v>
       </c>
       <c r="AE289" t="s" s="2">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="AF289" t="s" s="2">
         <v>41</v>
@@ -35812,7 +35816,7 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s" s="2">
@@ -35838,14 +35842,14 @@
         <v>474</v>
       </c>
       <c r="K290" t="s" s="2">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M290" s="2"/>
       <c r="N290" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="O290" t="s" s="2">
         <v>43</v>
@@ -35894,7 +35898,7 @@
         <v>43</v>
       </c>
       <c r="AE290" t="s" s="2">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="AF290" t="s" s="2">
         <v>41</v>
@@ -35923,7 +35927,7 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s" s="2">
@@ -35946,17 +35950,17 @@
         <v>43</v>
       </c>
       <c r="J291" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K291" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M291" s="2"/>
       <c r="N291" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="O291" t="s" s="2">
         <v>43</v>
@@ -35984,10 +35988,10 @@
         <v>116</v>
       </c>
       <c r="X291" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Y291" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="Z291" t="s" s="2">
         <v>43</v>
@@ -36005,7 +36009,7 @@
         <v>43</v>
       </c>
       <c r="AE291" t="s" s="2">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="AF291" t="s" s="2">
         <v>41</v>
@@ -36034,7 +36038,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" t="s" s="2">
@@ -36057,17 +36061,17 @@
         <v>43</v>
       </c>
       <c r="J292" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K292" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M292" s="2"/>
       <c r="N292" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O292" t="s" s="2">
         <v>43</v>
@@ -36116,7 +36120,7 @@
         <v>43</v>
       </c>
       <c r="AE292" t="s" s="2">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="AF292" t="s" s="2">
         <v>41</v>
@@ -36145,7 +36149,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" t="s" s="2">
@@ -36168,17 +36172,17 @@
         <v>43</v>
       </c>
       <c r="J293" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K293" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M293" s="2"/>
       <c r="N293" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O293" t="s" s="2">
         <v>43</v>
@@ -36227,7 +36231,7 @@
         <v>43</v>
       </c>
       <c r="AE293" t="s" s="2">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="AF293" t="s" s="2">
         <v>41</v>
@@ -36256,7 +36260,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s" s="2">
@@ -36279,19 +36283,19 @@
         <v>43</v>
       </c>
       <c r="J294" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K294" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L294" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N294" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O294" t="s" s="2">
         <v>43</v>
@@ -36340,7 +36344,7 @@
         <v>43</v>
       </c>
       <c r="AE294" t="s" s="2">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="AF294" t="s" s="2">
         <v>41</v>
@@ -36369,7 +36373,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s" s="2">
@@ -36392,19 +36396,19 @@
         <v>43</v>
       </c>
       <c r="J295" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K295" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>43</v>
@@ -36453,7 +36457,7 @@
         <v>43</v>
       </c>
       <c r="AE295" t="s" s="2">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AF295" t="s" s="2">
         <v>41</v>
@@ -36482,7 +36486,7 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" t="s" s="2">
@@ -36508,16 +36512,16 @@
         <v>178</v>
       </c>
       <c r="K296" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="N296" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O296" t="s" s="2">
         <v>43</v>
@@ -36545,10 +36549,10 @@
         <v>116</v>
       </c>
       <c r="X296" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Y296" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="Z296" t="s" s="2">
         <v>43</v>
@@ -36566,7 +36570,7 @@
         <v>43</v>
       </c>
       <c r="AE296" t="s" s="2">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="AF296" t="s" s="2">
         <v>41</v>
@@ -36595,7 +36599,7 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" t="s" s="2">
@@ -36621,14 +36625,14 @@
         <v>178</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="M297" s="2"/>
       <c r="N297" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="O297" t="s" s="2">
         <v>43</v>
@@ -36656,10 +36660,10 @@
         <v>116</v>
       </c>
       <c r="X297" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Y297" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="Z297" t="s" s="2">
         <v>43</v>
@@ -36677,7 +36681,7 @@
         <v>43</v>
       </c>
       <c r="AE297" t="s" s="2">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="AF297" t="s" s="2">
         <v>41</v>
@@ -36706,7 +36710,7 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s" s="2">
@@ -36732,14 +36736,14 @@
         <v>420</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M298" s="2"/>
       <c r="N298" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O298" t="s" s="2">
         <v>43</v>
@@ -36788,7 +36792,7 @@
         <v>43</v>
       </c>
       <c r="AE298" t="s" s="2">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="AF298" t="s" s="2">
         <v>41</v>
@@ -36817,7 +36821,7 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s" s="2">
@@ -36843,10 +36847,10 @@
         <v>43</v>
       </c>
       <c r="K299" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="L299" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M299" s="2"/>
       <c r="N299" s="2"/>
@@ -36897,7 +36901,7 @@
         <v>43</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>41</v>
@@ -36926,7 +36930,7 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s" s="2">
@@ -36952,10 +36956,10 @@
         <v>311</v>
       </c>
       <c r="K300" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M300" s="2"/>
       <c r="N300" s="2"/>
@@ -37006,7 +37010,7 @@
         <v>43</v>
       </c>
       <c r="AE300" t="s" s="2">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="AF300" t="s" s="2">
         <v>41</v>
@@ -37035,7 +37039,7 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s" s="2">
@@ -37144,7 +37148,7 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s" s="2">
@@ -37255,7 +37259,7 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s" s="2">
@@ -37368,11 +37372,11 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -37394,16 +37398,16 @@
         <v>178</v>
       </c>
       <c r="K304" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L304" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M304" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N304" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O304" t="s" s="2">
         <v>43</v>
@@ -37431,10 +37435,10 @@
         <v>116</v>
       </c>
       <c r="X304" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="Y304" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Z304" t="s" s="2">
         <v>43</v>
@@ -37452,7 +37456,7 @@
         <v>43</v>
       </c>
       <c r="AE304" t="s" s="2">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="AF304" t="s" s="2">
         <v>50</v>
@@ -37481,7 +37485,7 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s" s="2">
@@ -37507,16 +37511,16 @@
         <v>178</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O305" t="s" s="2">
         <v>43</v>
@@ -37544,10 +37548,10 @@
         <v>116</v>
       </c>
       <c r="X305" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y305" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Z305" t="s" s="2">
         <v>43</v>
@@ -37565,7 +37569,7 @@
         <v>43</v>
       </c>
       <c r="AE305" t="s" s="2">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="AF305" t="s" s="2">
         <v>41</v>
@@ -37594,7 +37598,7 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s" s="2">
@@ -37617,17 +37621,17 @@
         <v>43</v>
       </c>
       <c r="J306" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K306" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M306" s="2"/>
       <c r="N306" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O306" t="s" s="2">
         <v>43</v>
@@ -37676,7 +37680,7 @@
         <v>43</v>
       </c>
       <c r="AE306" t="s" s="2">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="AF306" t="s" s="2">
         <v>41</v>
@@ -37705,7 +37709,7 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s" s="2">
@@ -37728,17 +37732,17 @@
         <v>43</v>
       </c>
       <c r="J307" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M307" s="2"/>
       <c r="N307" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O307" t="s" s="2">
         <v>43</v>
@@ -37787,7 +37791,7 @@
         <v>43</v>
       </c>
       <c r="AE307" t="s" s="2">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="AF307" t="s" s="2">
         <v>41</v>
@@ -37816,7 +37820,7 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s" s="2">
@@ -37839,19 +37843,19 @@
         <v>43</v>
       </c>
       <c r="J308" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K308" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>43</v>
@@ -37900,7 +37904,7 @@
         <v>43</v>
       </c>
       <c r="AE308" t="s" s="2">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="AF308" t="s" s="2">
         <v>41</v>
@@ -37929,7 +37933,7 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s" s="2">
@@ -37952,19 +37956,19 @@
         <v>43</v>
       </c>
       <c r="J309" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K309" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O309" t="s" s="2">
         <v>43</v>
@@ -38013,7 +38017,7 @@
         <v>43</v>
       </c>
       <c r="AE309" t="s" s="2">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="AF309" t="s" s="2">
         <v>41</v>
@@ -38042,7 +38046,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s" s="2">
@@ -38068,14 +38072,14 @@
         <v>420</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M310" s="2"/>
       <c r="N310" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O310" t="s" s="2">
         <v>43</v>
@@ -38124,7 +38128,7 @@
         <v>43</v>
       </c>
       <c r="AE310" t="s" s="2">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="AF310" t="s" s="2">
         <v>41</v>
@@ -38153,7 +38157,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s" s="2">
@@ -38179,10 +38183,10 @@
         <v>43</v>
       </c>
       <c r="K311" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
@@ -38233,7 +38237,7 @@
         <v>43</v>
       </c>
       <c r="AE311" t="s" s="2">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="AF311" t="s" s="2">
         <v>41</v>
@@ -38262,7 +38266,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s" s="2">
@@ -38288,10 +38292,10 @@
         <v>311</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="M312" s="2"/>
       <c r="N312" s="2"/>
@@ -38342,7 +38346,7 @@
         <v>43</v>
       </c>
       <c r="AE312" t="s" s="2">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="AF312" t="s" s="2">
         <v>41</v>
@@ -38371,7 +38375,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s" s="2">
@@ -38480,7 +38484,7 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s" s="2">
@@ -38591,7 +38595,7 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s" s="2">
@@ -38704,11 +38708,11 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -38730,16 +38734,16 @@
         <v>178</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="O316" t="s" s="2">
         <v>43</v>
@@ -38767,10 +38771,10 @@
         <v>116</v>
       </c>
       <c r="X316" t="s" s="2">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="Y316" t="s" s="2">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="Z316" t="s" s="2">
         <v>43</v>
@@ -38788,7 +38792,7 @@
         <v>43</v>
       </c>
       <c r="AE316" t="s" s="2">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>50</v>
@@ -38817,7 +38821,7 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s" s="2">
@@ -38843,16 +38847,16 @@
         <v>178</v>
       </c>
       <c r="K317" t="s" s="2">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="O317" t="s" s="2">
         <v>43</v>
@@ -38880,10 +38884,10 @@
         <v>116</v>
       </c>
       <c r="X317" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Y317" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="Z317" t="s" s="2">
         <v>43</v>
@@ -38901,7 +38905,7 @@
         <v>43</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>41</v>
@@ -38930,7 +38934,7 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s" s="2">
@@ -38953,17 +38957,17 @@
         <v>43</v>
       </c>
       <c r="J318" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K318" t="s" s="2">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M318" s="2"/>
       <c r="N318" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="O318" t="s" s="2">
         <v>43</v>
@@ -39012,7 +39016,7 @@
         <v>43</v>
       </c>
       <c r="AE318" t="s" s="2">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="AF318" t="s" s="2">
         <v>41</v>
@@ -39041,7 +39045,7 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s" s="2">
@@ -39064,17 +39068,17 @@
         <v>43</v>
       </c>
       <c r="J319" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K319" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="M319" s="2"/>
       <c r="N319" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="O319" t="s" s="2">
         <v>43</v>
@@ -39123,7 +39127,7 @@
         <v>43</v>
       </c>
       <c r="AE319" t="s" s="2">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="AF319" t="s" s="2">
         <v>41</v>
@@ -39152,7 +39156,7 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s" s="2">
@@ -39175,19 +39179,19 @@
         <v>43</v>
       </c>
       <c r="J320" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>43</v>
@@ -39236,7 +39240,7 @@
         <v>43</v>
       </c>
       <c r="AE320" t="s" s="2">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="AF320" t="s" s="2">
         <v>41</v>
@@ -39265,7 +39269,7 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s" s="2">
@@ -39288,19 +39292,19 @@
         <v>43</v>
       </c>
       <c r="J321" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>43</v>
@@ -39349,7 +39353,7 @@
         <v>43</v>
       </c>
       <c r="AE321" t="s" s="2">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="AF321" t="s" s="2">
         <v>41</v>
@@ -39378,7 +39382,7 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s" s="2">
@@ -39404,14 +39408,14 @@
         <v>420</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="M322" s="2"/>
       <c r="N322" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O322" t="s" s="2">
         <v>43</v>
@@ -39460,7 +39464,7 @@
         <v>43</v>
       </c>
       <c r="AE322" t="s" s="2">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="AF322" t="s" s="2">
         <v>41</v>
@@ -39489,7 +39493,7 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s" s="2">
@@ -39515,10 +39519,10 @@
         <v>43</v>
       </c>
       <c r="K323" t="s" s="2">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="M323" s="2"/>
       <c r="N323" s="2"/>
@@ -39569,7 +39573,7 @@
         <v>43</v>
       </c>
       <c r="AE323" t="s" s="2">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="AF323" t="s" s="2">
         <v>41</v>
@@ -39598,7 +39602,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s" s="2">
@@ -39624,14 +39628,14 @@
         <v>43</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="M324" s="2"/>
       <c r="N324" t="s" s="2">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="O324" t="s" s="2">
         <v>43</v>
@@ -39680,7 +39684,7 @@
         <v>43</v>
       </c>
       <c r="AE324" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="AF324" t="s" s="2">
         <v>41</v>
@@ -39709,7 +39713,7 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s" s="2">
@@ -39735,16 +39739,16 @@
         <v>311</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="O325" t="s" s="2">
         <v>43</v>
@@ -39781,10 +39785,10 @@
         <v>43</v>
       </c>
       <c r="AA325" t="s" s="2">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="AB325" t="s" s="2">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AC325" t="s" s="2">
         <v>43</v>
@@ -39793,7 +39797,7 @@
         <v>76</v>
       </c>
       <c r="AE325" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AF325" t="s" s="2">
         <v>41</v>
@@ -39822,7 +39826,7 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s" s="2">
@@ -39931,7 +39935,7 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s" s="2">
@@ -40042,7 +40046,7 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s" s="2">
@@ -40155,7 +40159,7 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s" s="2">
@@ -40181,16 +40185,16 @@
         <v>178</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="O329" t="s" s="2">
         <v>43</v>
@@ -40218,10 +40222,10 @@
         <v>116</v>
       </c>
       <c r="X329" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="Y329" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="Z329" t="s" s="2">
         <v>43</v>
@@ -40239,7 +40243,7 @@
         <v>43</v>
       </c>
       <c r="AE329" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AF329" t="s" s="2">
         <v>50</v>
@@ -40268,7 +40272,7 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s" s="2">
@@ -40291,17 +40295,17 @@
         <v>51</v>
       </c>
       <c r="J330" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K330" t="s" s="2">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M330" s="2"/>
       <c r="N330" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O330" t="s" s="2">
         <v>43</v>
@@ -40350,7 +40354,7 @@
         <v>43</v>
       </c>
       <c r="AE330" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AF330" t="s" s="2">
         <v>50</v>
@@ -40379,10 +40383,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C331" t="s" s="2">
         <v>43</v>
@@ -40407,16 +40411,16 @@
         <v>311</v>
       </c>
       <c r="K331" t="s" s="2">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="O331" t="s" s="2">
         <v>43</v>
@@ -40465,7 +40469,7 @@
         <v>43</v>
       </c>
       <c r="AE331" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AF331" t="s" s="2">
         <v>41</v>
@@ -40494,7 +40498,7 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s" s="2">
@@ -40603,7 +40607,7 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s" s="2">
@@ -40714,7 +40718,7 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s" s="2">
@@ -40827,7 +40831,7 @@
     </row>
     <row r="335" hidden="true">
       <c r="A335" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s" s="2">
@@ -40853,16 +40857,16 @@
         <v>178</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="O335" t="s" s="2">
         <v>43</v>
@@ -40891,7 +40895,7 @@
       </c>
       <c r="X335" s="2"/>
       <c r="Y335" t="s" s="2">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="Z335" t="s" s="2">
         <v>43</v>
@@ -40909,7 +40913,7 @@
         <v>43</v>
       </c>
       <c r="AE335" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AF335" t="s" s="2">
         <v>50</v>
@@ -40938,7 +40942,7 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s" s="2">
@@ -40961,17 +40965,17 @@
         <v>51</v>
       </c>
       <c r="J336" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K336" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M336" s="2"/>
       <c r="N336" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O336" t="s" s="2">
         <v>43</v>
@@ -41020,7 +41024,7 @@
         <v>43</v>
       </c>
       <c r="AE336" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AF336" t="s" s="2">
         <v>50</v>
@@ -41049,10 +41053,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C337" t="s" s="2">
         <v>43</v>
@@ -41077,16 +41081,16 @@
         <v>311</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>43</v>
@@ -41135,7 +41139,7 @@
         <v>43</v>
       </c>
       <c r="AE337" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="AF337" t="s" s="2">
         <v>41</v>
@@ -41164,7 +41168,7 @@
     </row>
     <row r="338" hidden="true">
       <c r="A338" t="s" s="2">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s" s="2">
@@ -41273,7 +41277,7 @@
     </row>
     <row r="339" hidden="true">
       <c r="A339" t="s" s="2">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s" s="2">
@@ -41384,7 +41388,7 @@
     </row>
     <row r="340" hidden="true">
       <c r="A340" t="s" s="2">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s" s="2">
@@ -41497,7 +41501,7 @@
     </row>
     <row r="341" hidden="true">
       <c r="A341" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s" s="2">
@@ -41523,16 +41527,16 @@
         <v>178</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="O341" t="s" s="2">
         <v>43</v>
@@ -41561,7 +41565,7 @@
       </c>
       <c r="X341" s="2"/>
       <c r="Y341" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="Z341" t="s" s="2">
         <v>43</v>
@@ -41579,7 +41583,7 @@
         <v>43</v>
       </c>
       <c r="AE341" t="s" s="2">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="AF341" t="s" s="2">
         <v>50</v>
@@ -41608,7 +41612,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s" s="2">
@@ -41631,17 +41635,17 @@
         <v>51</v>
       </c>
       <c r="J342" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="M342" s="2"/>
       <c r="N342" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="O342" t="s" s="2">
         <v>43</v>
@@ -41690,7 +41694,7 @@
         <v>43</v>
       </c>
       <c r="AE342" t="s" s="2">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="AF342" t="s" s="2">
         <v>50</v>
@@ -41719,7 +41723,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s" s="2">
@@ -41745,14 +41749,14 @@
         <v>311</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="M343" s="2"/>
       <c r="N343" t="s" s="2">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="O343" t="s" s="2">
         <v>43</v>
@@ -41801,7 +41805,7 @@
         <v>43</v>
       </c>
       <c r="AE343" t="s" s="2">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="AF343" t="s" s="2">
         <v>41</v>
@@ -41830,7 +41834,7 @@
     </row>
     <row r="344" hidden="true">
       <c r="A344" t="s" s="2">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s" s="2">
@@ -41939,7 +41943,7 @@
     </row>
     <row r="345" hidden="true">
       <c r="A345" t="s" s="2">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s" s="2">
@@ -42050,7 +42054,7 @@
     </row>
     <row r="346" hidden="true">
       <c r="A346" t="s" s="2">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s" s="2">
@@ -42163,7 +42167,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s" s="2">
@@ -42189,14 +42193,14 @@
         <v>178</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="M347" s="2"/>
       <c r="N347" t="s" s="2">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="O347" t="s" s="2">
         <v>43</v>
@@ -42225,7 +42229,7 @@
       </c>
       <c r="X347" s="2"/>
       <c r="Y347" t="s" s="2">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="Z347" t="s" s="2">
         <v>43</v>
@@ -42243,7 +42247,7 @@
         <v>43</v>
       </c>
       <c r="AE347" t="s" s="2">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="AF347" t="s" s="2">
         <v>41</v>
@@ -42272,7 +42276,7 @@
     </row>
     <row r="348" hidden="true">
       <c r="A348" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s" s="2">
@@ -42295,19 +42299,19 @@
         <v>43</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K348" t="s" s="2">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="O348" t="s" s="2">
         <v>43</v>
@@ -42356,7 +42360,7 @@
         <v>43</v>
       </c>
       <c r="AE348" t="s" s="2">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="AF348" t="s" s="2">
         <v>41</v>
@@ -42385,7 +42389,7 @@
     </row>
     <row r="349" hidden="true">
       <c r="A349" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s" s="2">
@@ -42411,14 +42415,14 @@
         <v>178</v>
       </c>
       <c r="K349" t="s" s="2">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="M349" s="2"/>
       <c r="N349" t="s" s="2">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="O349" t="s" s="2">
         <v>43</v>
@@ -42446,10 +42450,10 @@
         <v>116</v>
       </c>
       <c r="X349" t="s" s="2">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="Y349" t="s" s="2">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="Z349" t="s" s="2">
         <v>43</v>
@@ -42467,7 +42471,7 @@
         <v>43</v>
       </c>
       <c r="AE349" t="s" s="2">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="AF349" t="s" s="2">
         <v>41</v>
@@ -42496,7 +42500,7 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s" s="2">
@@ -42519,17 +42523,17 @@
         <v>43</v>
       </c>
       <c r="J350" t="s" s="2">
-        <v>625</v>
+        <v>513</v>
       </c>
       <c r="K350" t="s" s="2">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="M350" s="2"/>
       <c r="N350" t="s" s="2">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="O350" t="s" s="2">
         <v>43</v>
@@ -42578,7 +42582,7 @@
         <v>43</v>
       </c>
       <c r="AE350" t="s" s="2">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="AF350" t="s" s="2">
         <v>41</v>
@@ -42607,7 +42611,7 @@
     </row>
     <row r="351" hidden="true">
       <c r="A351" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s" s="2">
@@ -42630,17 +42634,17 @@
         <v>43</v>
       </c>
       <c r="J351" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="L351" t="s" s="2">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="M351" s="2"/>
       <c r="N351" t="s" s="2">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="O351" t="s" s="2">
         <v>43</v>
@@ -42689,7 +42693,7 @@
         <v>43</v>
       </c>
       <c r="AE351" t="s" s="2">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="AF351" t="s" s="2">
         <v>41</v>
@@ -42718,7 +42722,7 @@
     </row>
     <row r="352" hidden="true">
       <c r="A352" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s" s="2">
@@ -42744,16 +42748,16 @@
         <v>159</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="O352" t="s" s="2">
         <v>43</v>
@@ -42802,7 +42806,7 @@
         <v>43</v>
       </c>
       <c r="AE352" t="s" s="2">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="AF352" t="s" s="2">
         <v>41</v>
@@ -42831,7 +42835,7 @@
     </row>
     <row r="353" hidden="true">
       <c r="A353" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s" s="2">
@@ -42857,16 +42861,16 @@
         <v>178</v>
       </c>
       <c r="K353" t="s" s="2">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="O353" t="s" s="2">
         <v>43</v>
@@ -42894,10 +42898,10 @@
         <v>116</v>
       </c>
       <c r="X353" t="s" s="2">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="Y353" t="s" s="2">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="Z353" t="s" s="2">
         <v>43</v>
@@ -42915,7 +42919,7 @@
         <v>43</v>
       </c>
       <c r="AE353" t="s" s="2">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AF353" t="s" s="2">
         <v>41</v>
@@ -42944,7 +42948,7 @@
     </row>
     <row r="354" hidden="true">
       <c r="A354" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s" s="2">
@@ -42967,19 +42971,19 @@
         <v>43</v>
       </c>
       <c r="J354" t="s" s="2">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="K354" t="s" s="2">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="O354" t="s" s="2">
         <v>43</v>
@@ -43028,7 +43032,7 @@
         <v>43</v>
       </c>
       <c r="AE354" t="s" s="2">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="AF354" t="s" s="2">
         <v>41</v>
@@ -43057,7 +43061,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s" s="2">
@@ -43083,14 +43087,14 @@
         <v>311</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M355" s="2"/>
       <c r="N355" t="s" s="2">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="O355" t="s" s="2">
         <v>43</v>
@@ -43139,7 +43143,7 @@
         <v>43</v>
       </c>
       <c r="AE355" t="s" s="2">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="AF355" t="s" s="2">
         <v>41</v>
@@ -43168,7 +43172,7 @@
     </row>
     <row r="356" hidden="true">
       <c r="A356" t="s" s="2">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s" s="2">
@@ -43277,7 +43281,7 @@
     </row>
     <row r="357" hidden="true">
       <c r="A357" t="s" s="2">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s" s="2">
@@ -43388,7 +43392,7 @@
     </row>
     <row r="358" hidden="true">
       <c r="A358" t="s" s="2">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s" s="2">
@@ -43501,7 +43505,7 @@
     </row>
     <row r="359" hidden="true">
       <c r="A359" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s" s="2">
@@ -43527,14 +43531,14 @@
         <v>420</v>
       </c>
       <c r="K359" t="s" s="2">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="M359" s="2"/>
       <c r="N359" t="s" s="2">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="O359" t="s" s="2">
         <v>43</v>
@@ -43583,7 +43587,7 @@
         <v>43</v>
       </c>
       <c r="AE359" t="s" s="2">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="AF359" t="s" s="2">
         <v>41</v>
@@ -43612,7 +43616,7 @@
     </row>
     <row r="360" hidden="true">
       <c r="A360" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s" s="2">
@@ -43638,14 +43642,14 @@
         <v>126</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="L360" t="s" s="2">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="M360" s="2"/>
       <c r="N360" t="s" s="2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="O360" t="s" s="2">
         <v>43</v>
@@ -43673,10 +43677,10 @@
         <v>172</v>
       </c>
       <c r="X360" t="s" s="2">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="Y360" t="s" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="Z360" t="s" s="2">
         <v>43</v>
@@ -43694,7 +43698,7 @@
         <v>43</v>
       </c>
       <c r="AE360" t="s" s="2">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="AF360" t="s" s="2">
         <v>41</v>
@@ -43723,7 +43727,7 @@
     </row>
     <row r="361" hidden="true">
       <c r="A361" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s" s="2">
@@ -43749,14 +43753,14 @@
         <v>52</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="M361" s="2"/>
       <c r="N361" t="s" s="2">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="O361" t="s" s="2">
         <v>43</v>
@@ -43805,7 +43809,7 @@
         <v>43</v>
       </c>
       <c r="AE361" t="s" s="2">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="AF361" t="s" s="2">
         <v>41</v>
@@ -43834,7 +43838,7 @@
     </row>
     <row r="362" hidden="true">
       <c r="A362" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s" s="2">
@@ -43860,16 +43864,16 @@
         <v>178</v>
       </c>
       <c r="K362" t="s" s="2">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="O362" t="s" s="2">
         <v>43</v>
@@ -43918,7 +43922,7 @@
         <v>43</v>
       </c>
       <c r="AE362" t="s" s="2">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="AF362" t="s" s="2">
         <v>41</v>
@@ -43947,7 +43951,7 @@
     </row>
     <row r="363" hidden="true">
       <c r="A363" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s" s="2">
@@ -43973,16 +43977,16 @@
         <v>205</v>
       </c>
       <c r="K363" t="s" s="2">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="O363" t="s" s="2">
         <v>43</v>
@@ -44031,7 +44035,7 @@
         <v>43</v>
       </c>
       <c r="AE363" t="s" s="2">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="AF363" t="s" s="2">
         <v>41</v>
@@ -44060,7 +44064,7 @@
     </row>
     <row r="364" hidden="true">
       <c r="A364" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s" s="2">
@@ -44086,10 +44090,10 @@
         <v>311</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="M364" s="2"/>
       <c r="N364" s="2"/>
@@ -44140,7 +44144,7 @@
         <v>43</v>
       </c>
       <c r="AE364" t="s" s="2">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="AF364" t="s" s="2">
         <v>41</v>
@@ -44169,7 +44173,7 @@
     </row>
     <row r="365" hidden="true">
       <c r="A365" t="s" s="2">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s" s="2">
@@ -44278,7 +44282,7 @@
     </row>
     <row r="366" hidden="true">
       <c r="A366" t="s" s="2">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s" s="2">
@@ -44389,7 +44393,7 @@
     </row>
     <row r="367" hidden="true">
       <c r="A367" t="s" s="2">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s" s="2">
@@ -44502,7 +44506,7 @@
     </row>
     <row r="368" hidden="true">
       <c r="A368" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s" s="2">
@@ -44528,16 +44532,16 @@
         <v>178</v>
       </c>
       <c r="K368" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="O368" t="s" s="2">
         <v>43</v>
@@ -44565,10 +44569,10 @@
         <v>116</v>
       </c>
       <c r="X368" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="Y368" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="Z368" t="s" s="2">
         <v>43</v>
@@ -44586,7 +44590,7 @@
         <v>43</v>
       </c>
       <c r="AE368" t="s" s="2">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="AF368" t="s" s="2">
         <v>50</v>
@@ -44615,7 +44619,7 @@
     </row>
     <row r="369" hidden="true">
       <c r="A369" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s" s="2">
@@ -44641,14 +44645,14 @@
         <v>430</v>
       </c>
       <c r="K369" t="s" s="2">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="M369" s="2"/>
       <c r="N369" t="s" s="2">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="O369" t="s" s="2">
         <v>43</v>
@@ -44697,7 +44701,7 @@
         <v>43</v>
       </c>
       <c r="AE369" t="s" s="2">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="AF369" t="s" s="2">
         <v>41</v>
@@ -44726,7 +44730,7 @@
     </row>
     <row r="370" hidden="true">
       <c r="A370" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s" s="2">
@@ -44752,16 +44756,16 @@
         <v>52</v>
       </c>
       <c r="K370" t="s" s="2">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="M370" t="s" s="2">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="N370" t="s" s="2">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="O370" t="s" s="2">
         <v>43</v>
@@ -44810,7 +44814,7 @@
         <v>43</v>
       </c>
       <c r="AE370" t="s" s="2">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="AF370" t="s" s="2">
         <v>41</v>
@@ -44839,7 +44843,7 @@
     </row>
     <row r="371" hidden="true">
       <c r="A371" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s" s="2">
@@ -44865,16 +44869,16 @@
         <v>52</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="M371" t="s" s="2">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="N371" t="s" s="2">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="O371" t="s" s="2">
         <v>43</v>
@@ -44923,7 +44927,7 @@
         <v>43</v>
       </c>
       <c r="AE371" t="s" s="2">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="AF371" t="s" s="2">
         <v>41</v>
@@ -44952,7 +44956,7 @@
     </row>
     <row r="372" hidden="true">
       <c r="A372" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s" s="2">
@@ -44978,14 +44982,14 @@
         <v>178</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="M372" s="2"/>
       <c r="N372" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="O372" t="s" s="2">
         <v>43</v>
@@ -45013,10 +45017,10 @@
         <v>116</v>
       </c>
       <c r="X372" t="s" s="2">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Y372" t="s" s="2">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="Z372" t="s" s="2">
         <v>43</v>
@@ -45034,7 +45038,7 @@
         <v>43</v>
       </c>
       <c r="AE372" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="AF372" t="s" s="2">
         <v>41</v>
@@ -45063,7 +45067,7 @@
     </row>
     <row r="373" hidden="true">
       <c r="A373" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s" s="2">
@@ -45089,14 +45093,14 @@
         <v>178</v>
       </c>
       <c r="K373" t="s" s="2">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="M373" s="2"/>
       <c r="N373" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O373" t="s" s="2">
         <v>43</v>
@@ -45124,10 +45128,10 @@
         <v>116</v>
       </c>
       <c r="X373" t="s" s="2">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="Y373" t="s" s="2">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="Z373" t="s" s="2">
         <v>43</v>
@@ -45145,7 +45149,7 @@
         <v>43</v>
       </c>
       <c r="AE373" t="s" s="2">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AF373" t="s" s="2">
         <v>41</v>
@@ -45174,7 +45178,7 @@
     </row>
     <row r="374" hidden="true">
       <c r="A374" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s" s="2">
@@ -45200,14 +45204,14 @@
         <v>178</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="M374" s="2"/>
       <c r="N374" t="s" s="2">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O374" t="s" s="2">
         <v>43</v>
@@ -45235,10 +45239,10 @@
         <v>116</v>
       </c>
       <c r="X374" t="s" s="2">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="Y374" t="s" s="2">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="Z374" t="s" s="2">
         <v>43</v>
@@ -45256,7 +45260,7 @@
         <v>43</v>
       </c>
       <c r="AE374" t="s" s="2">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="AF374" t="s" s="2">
         <v>41</v>
@@ -45285,7 +45289,7 @@
     </row>
     <row r="375" hidden="true">
       <c r="A375" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s" s="2">
@@ -45311,10 +45315,10 @@
         <v>311</v>
       </c>
       <c r="K375" t="s" s="2">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="M375" s="2"/>
       <c r="N375" s="2"/>
@@ -45365,7 +45369,7 @@
         <v>43</v>
       </c>
       <c r="AE375" t="s" s="2">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="AF375" t="s" s="2">
         <v>41</v>
@@ -45394,7 +45398,7 @@
     </row>
     <row r="376" hidden="true">
       <c r="A376" t="s" s="2">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s" s="2">
@@ -45503,7 +45507,7 @@
     </row>
     <row r="377" hidden="true">
       <c r="A377" t="s" s="2">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s" s="2">
@@ -45614,7 +45618,7 @@
     </row>
     <row r="378" hidden="true">
       <c r="A378" t="s" s="2">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s" s="2">
@@ -45727,7 +45731,7 @@
     </row>
     <row r="379" hidden="true">
       <c r="A379" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s" s="2">
@@ -45753,16 +45757,16 @@
         <v>178</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="O379" t="s" s="2">
         <v>43</v>
@@ -45790,10 +45794,10 @@
         <v>116</v>
       </c>
       <c r="X379" t="s" s="2">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="Y379" t="s" s="2">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="Z379" t="s" s="2">
         <v>43</v>
@@ -45811,7 +45815,7 @@
         <v>43</v>
       </c>
       <c r="AE379" t="s" s="2">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="AF379" t="s" s="2">
         <v>50</v>
@@ -45840,7 +45844,7 @@
     </row>
     <row r="380" hidden="true">
       <c r="A380" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s" s="2">
@@ -45863,17 +45867,17 @@
         <v>43</v>
       </c>
       <c r="J380" t="s" s="2">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="K380" t="s" s="2">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="M380" s="2"/>
       <c r="N380" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O380" t="s" s="2">
         <v>43</v>
@@ -45922,7 +45926,7 @@
         <v>43</v>
       </c>
       <c r="AE380" t="s" s="2">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AF380" t="s" s="2">
         <v>41</v>
@@ -45951,7 +45955,7 @@
     </row>
     <row r="381" hidden="true">
       <c r="A381" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s" s="2">
@@ -45974,17 +45978,17 @@
         <v>43</v>
       </c>
       <c r="J381" t="s" s="2">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="K381" t="s" s="2">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="L381" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="M381" s="2"/>
       <c r="N381" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="O381" t="s" s="2">
         <v>43</v>
@@ -46033,7 +46037,7 @@
         <v>43</v>
       </c>
       <c r="AE381" t="s" s="2">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="AF381" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -1306,10 +1306,13 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-EOB-pharm-careTeam-practitioner:Pharmacy EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code in 
-( 'primary' or 'prescribing')) implies 
- careTeam.provider.reference.resolve().is(FHIR.Practitioner)}EOB-pharm-careTeam-organization:Pharmacy EOB:  Careteam roles refer to a practitioner {( careTeam.role.coding.code='performing') implies 
- careTeam.provider.reference.resolve().is(FHIR.Organization)}</t>
+EOB-pharm-careTeam-practitioner:Pharmacy EOB:  Careteam roles refer to a practitioner {( 
+     careTeam.where(role.where(coding.where(code in ( 'primary' or 'prescribing')).exists()).exists()).exists() implies
+     careTeam.where(role.where(coding.where(code in ( 'primary' or 'prescribing')).exists()).exists()).provider.all(resolve().is Practitioner)
+    )}EOB-pharm-careTeam-organization:Pharmacy EOB:  Careteam roles refer to a practitioner {( 
+     careTeam.where(role.where(coding.where(code in ( 'performing')).exists()).exists()).exists() implies
+     careTeam.where(role.where(coding.where(code in ( 'performing')).exists()).exists()).provider.all(resolve().is Organization)
+    )}</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.careTeam.id</t>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit-Pharmacy.xlsx
@@ -12708,7 +12708,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
         <v>487</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>50</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>43</v>
@@ -13828,7 +13828,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
         <v>487</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>50</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>43</v>
@@ -14948,7 +14948,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>487</v>
       </c>
@@ -14964,7 +14964,7 @@
         <v>50</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>43</v>
@@ -16066,7 +16066,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" hidden="true">
+    <row r="112">
       <c r="A112" t="s" s="2">
         <v>487</v>
       </c>
@@ -16082,7 +16082,7 @@
         <v>50</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>43</v>
@@ -17186,7 +17186,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" hidden="true">
+    <row r="122">
       <c r="A122" t="s" s="2">
         <v>487</v>
       </c>
@@ -17202,7 +17202,7 @@
         <v>50</v>
       </c>
       <c r="G122" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H122" t="s" s="2">
         <v>43</v>
@@ -18304,7 +18304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
         <v>487</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>50</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>43</v>
@@ -19422,7 +19422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="142" hidden="true">
+    <row r="142">
       <c r="A142" t="s" s="2">
         <v>487</v>
       </c>
@@ -19438,7 +19438,7 @@
         <v>50</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>43</v>
@@ -20540,7 +20540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" hidden="true">
+    <row r="152">
       <c r="A152" t="s" s="2">
         <v>487</v>
       </c>
@@ -20556,7 +20556,7 @@
         <v>50</v>
       </c>
       <c r="G152" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H152" t="s" s="2">
         <v>43</v>
@@ -21660,7 +21660,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="162" hidden="true">
+    <row r="162">
       <c r="A162" t="s" s="2">
         <v>487</v>
       </c>
@@ -21676,7 +21676,7 @@
         <v>50</v>
       </c>
       <c r="G162" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H162" t="s" s="2">
         <v>43</v>
